--- a/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
+++ b/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Project\의상_코디_추천\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Project\의상_매칭_서비스\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
   <si>
     <t>시작 날짜</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>분석</t>
-  </si>
-  <si>
-    <t>현행업무/시스템분석</t>
   </si>
   <si>
     <t>현업인터뷰</t>
@@ -312,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>산출물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,6 +390,46 @@
   </si>
   <si>
     <t>어떤 옷을 입을지 고민된다면? 사진 한 장이면 '패스'!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산출물(파일명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 요구사항 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현행업무/시스템분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crawling Code 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 수집 프로그래밍 개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -567,6 +600,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -576,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,17 +666,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -649,14 +690,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -939,245 +992,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL78"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="3"/>
     <col min="6" max="7" width="8.75" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.125" customWidth="1"/>
+    <col min="20" max="38" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="AH1" s="20" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="AH1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+    </row>
+    <row r="2" spans="1:39" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+    </row>
+    <row r="3" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-    </row>
-    <row r="2" spans="1:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-    </row>
-    <row r="3" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+    </row>
+    <row r="4" spans="1:39" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM4" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-    </row>
-    <row r="4" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+    </row>
+    <row r="5" spans="1:39" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="4">
         <v>43915</v>
       </c>
@@ -1222,26 +1281,27 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-    </row>
-    <row r="6" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="AM5" s="24"/>
+    </row>
+    <row r="6" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="15">
         <v>0</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="7"/>
@@ -1274,20 +1334,23 @@
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
-    </row>
-    <row r="7" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="AM6" s="8"/>
+    </row>
+    <row r="7" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1320,15 +1383,16 @@
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
-    </row>
-    <row r="8" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="AM7" s="8"/>
+    </row>
+    <row r="8" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
       <c r="B8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="8"/>
@@ -1362,15 +1426,16 @@
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
-    </row>
-    <row r="9" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="AM8" s="8"/>
+    </row>
+    <row r="9" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
@@ -1404,15 +1469,16 @@
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
-    </row>
-    <row r="10" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="AM9" s="8"/>
+    </row>
+    <row r="10" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="8"/>
@@ -1446,15 +1512,16 @@
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
-    </row>
-    <row r="11" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="AM10" s="8"/>
+    </row>
+    <row r="11" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
@@ -1488,17 +1555,18 @@
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
-    </row>
-    <row r="12" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>8</v>
+      <c r="AM11" s="8"/>
+    </row>
+    <row r="12" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
@@ -1532,15 +1600,18 @@
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
-    </row>
-    <row r="13" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
+      <c r="AM12" s="8"/>
+    </row>
+    <row r="13" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
@@ -1574,15 +1645,16 @@
       <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
-    </row>
-    <row r="14" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="9" t="s">
-        <v>10</v>
+      <c r="AM13" s="8"/>
+    </row>
+    <row r="14" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
@@ -1616,15 +1688,16 @@
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
-    </row>
-    <row r="15" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="9" t="s">
-        <v>11</v>
+      <c r="AM14" s="8"/>
+    </row>
+    <row r="15" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
@@ -1658,15 +1731,16 @@
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
-    </row>
-    <row r="16" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="AM15" s="8"/>
+    </row>
+    <row r="16" spans="1:39" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
       <c r="B16" s="9" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="8"/>
@@ -1700,15 +1774,16 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
-    </row>
-    <row r="17" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="26" t="s">
-        <v>13</v>
+      <c r="AM16" s="8"/>
+    </row>
+    <row r="17" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="8"/>
@@ -1742,15 +1817,16 @@
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
       <c r="AL17" s="8"/>
-    </row>
-    <row r="18" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="AM17" s="8"/>
+    </row>
+    <row r="18" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
       <c r="B18" s="9" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
@@ -1784,15 +1860,16 @@
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
-    </row>
-    <row r="19" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="AM18" s="8"/>
+    </row>
+    <row r="19" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
       <c r="B19" s="9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
@@ -1826,15 +1903,16 @@
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="8"/>
-    </row>
-    <row r="20" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="AM19" s="8"/>
+    </row>
+    <row r="20" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
       <c r="B20" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="8"/>
@@ -1868,15 +1946,16 @@
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
-    </row>
-    <row r="21" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="AM20" s="8"/>
+    </row>
+    <row r="21" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
       <c r="B21" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
@@ -1910,15 +1989,16 @@
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
       <c r="AL21" s="8"/>
-    </row>
-    <row r="22" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="9" t="s">
-        <v>18</v>
+      <c r="AM21" s="8"/>
+    </row>
+    <row r="22" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
@@ -1952,15 +2032,16 @@
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
       <c r="AL22" s="8"/>
-    </row>
-    <row r="23" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="AM22" s="8"/>
+    </row>
+    <row r="23" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
       <c r="B23" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="8"/>
@@ -1994,15 +2075,16 @@
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
-    </row>
-    <row r="24" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="AM23" s="8"/>
+    </row>
+    <row r="24" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
       <c r="B24" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
@@ -2036,15 +2118,16 @@
       <c r="AJ24" s="8"/>
       <c r="AK24" s="8"/>
       <c r="AL24" s="8"/>
-    </row>
-    <row r="25" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="10" t="s">
-        <v>21</v>
+      <c r="AM24" s="8"/>
+    </row>
+    <row r="25" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="8"/>
@@ -2078,15 +2161,16 @@
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
-    </row>
-    <row r="26" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="10" t="s">
-        <v>22</v>
+      <c r="AM25" s="8"/>
+    </row>
+    <row r="26" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="8"/>
@@ -2120,15 +2204,16 @@
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
-    </row>
-    <row r="27" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="10" t="s">
-        <v>23</v>
+      <c r="AM26" s="8"/>
+    </row>
+    <row r="27" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="8"/>
@@ -2162,15 +2247,16 @@
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
       <c r="AL27" s="8"/>
-    </row>
-    <row r="28" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="26" t="s">
-        <v>24</v>
+      <c r="AM27" s="8"/>
+    </row>
+    <row r="28" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="8"/>
@@ -2204,15 +2290,16 @@
       <c r="AJ28" s="8"/>
       <c r="AK28" s="8"/>
       <c r="AL28" s="8"/>
-    </row>
-    <row r="29" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="AM28" s="8"/>
+    </row>
+    <row r="29" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
       <c r="B29" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="8"/>
@@ -2246,15 +2333,16 @@
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
       <c r="AL29" s="8"/>
-    </row>
-    <row r="30" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="AM29" s="8"/>
+    </row>
+    <row r="30" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="8"/>
@@ -2288,15 +2376,16 @@
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
       <c r="AL30" s="8"/>
-    </row>
-    <row r="31" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+      <c r="AM30" s="8"/>
+    </row>
+    <row r="31" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
       <c r="B31" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="8"/>
@@ -2330,15 +2419,16 @@
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
       <c r="AL31" s="8"/>
-    </row>
-    <row r="32" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="9" t="s">
-        <v>86</v>
+      <c r="AM31" s="8"/>
+    </row>
+    <row r="32" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="8"/>
@@ -2372,15 +2462,16 @@
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
       <c r="AL32" s="8"/>
-    </row>
-    <row r="33" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="10" t="s">
-        <v>21</v>
+      <c r="AM32" s="8"/>
+    </row>
+    <row r="33" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="8"/>
@@ -2414,15 +2505,16 @@
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8"/>
       <c r="AL33" s="8"/>
-    </row>
-    <row r="34" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="10" t="s">
-        <v>28</v>
+      <c r="AM33" s="8"/>
+    </row>
+    <row r="34" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="8"/>
@@ -2456,15 +2548,16 @@
       <c r="AJ34" s="8"/>
       <c r="AK34" s="8"/>
       <c r="AL34" s="8"/>
-    </row>
-    <row r="35" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="AM34" s="8"/>
+    </row>
+    <row r="35" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
       <c r="B35" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="8"/>
@@ -2498,15 +2591,16 @@
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
       <c r="AL35" s="8"/>
-    </row>
-    <row r="36" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="AM35" s="8"/>
+    </row>
+    <row r="36" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
       <c r="B36" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="8"/>
@@ -2540,15 +2634,16 @@
       <c r="AJ36" s="8"/>
       <c r="AK36" s="8"/>
       <c r="AL36" s="8"/>
-    </row>
-    <row r="37" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="AM36" s="8"/>
+    </row>
+    <row r="37" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
       <c r="B37" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="8"/>
@@ -2582,15 +2677,16 @@
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
       <c r="AL37" s="8"/>
-    </row>
-    <row r="38" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="9" t="s">
-        <v>88</v>
+      <c r="AM37" s="8"/>
+    </row>
+    <row r="38" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="8"/>
@@ -2624,15 +2720,16 @@
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8"/>
       <c r="AL38" s="8"/>
-    </row>
-    <row r="39" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="9" t="s">
-        <v>30</v>
+      <c r="AM38" s="8"/>
+    </row>
+    <row r="39" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="8"/>
@@ -2666,15 +2763,16 @@
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
       <c r="AL39" s="8"/>
-    </row>
-    <row r="40" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+      <c r="AM39" s="8"/>
+    </row>
+    <row r="40" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
       <c r="B40" s="10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="8"/>
@@ -2708,15 +2806,16 @@
       <c r="AJ40" s="8"/>
       <c r="AK40" s="8"/>
       <c r="AL40" s="8"/>
-    </row>
-    <row r="41" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="26" t="s">
-        <v>32</v>
+      <c r="AM40" s="8"/>
+    </row>
+    <row r="41" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="8"/>
@@ -2750,15 +2849,16 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
       <c r="AL41" s="8"/>
-    </row>
-    <row r="42" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="AM41" s="8"/>
+    </row>
+    <row r="42" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
       <c r="B42" s="9" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="8"/>
@@ -2792,15 +2892,16 @@
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
       <c r="AL42" s="8"/>
-    </row>
-    <row r="43" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+      <c r="AM42" s="8"/>
+    </row>
+    <row r="43" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
       <c r="B43" s="9" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="8"/>
@@ -2834,15 +2935,16 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
       <c r="AL43" s="8"/>
-    </row>
-    <row r="44" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="26" t="s">
-        <v>35</v>
+      <c r="AM43" s="8"/>
+    </row>
+    <row r="44" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
+      <c r="B44" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="8"/>
@@ -2876,15 +2978,16 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="8"/>
       <c r="AL44" s="8"/>
-    </row>
-    <row r="45" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="9" t="s">
-        <v>36</v>
+      <c r="AM44" s="8"/>
+    </row>
+    <row r="45" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="28"/>
+      <c r="B45" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="8"/>
@@ -2918,15 +3021,16 @@
       <c r="AJ45" s="8"/>
       <c r="AK45" s="8"/>
       <c r="AL45" s="8"/>
-    </row>
-    <row r="46" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="9" t="s">
-        <v>37</v>
+      <c r="AM45" s="8"/>
+    </row>
+    <row r="46" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="B46" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="8"/>
@@ -2960,15 +3064,16 @@
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8"/>
       <c r="AL46" s="8"/>
-    </row>
-    <row r="47" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="26" t="s">
-        <v>38</v>
+      <c r="AM46" s="8"/>
+    </row>
+    <row r="47" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+      <c r="B47" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="8"/>
@@ -3002,15 +3107,16 @@
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
       <c r="AL47" s="8"/>
-    </row>
-    <row r="48" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="AM47" s="8"/>
+    </row>
+    <row r="48" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
       <c r="B48" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="8"/>
@@ -3044,15 +3150,16 @@
       <c r="AJ48" s="8"/>
       <c r="AK48" s="8"/>
       <c r="AL48" s="8"/>
-    </row>
-    <row r="49" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="9" t="s">
-        <v>40</v>
+      <c r="AM48" s="8"/>
+    </row>
+    <row r="49" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="8"/>
@@ -3086,15 +3193,16 @@
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8"/>
       <c r="AL49" s="8"/>
-    </row>
-    <row r="50" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="26" t="s">
-        <v>41</v>
+      <c r="AM49" s="8"/>
+    </row>
+    <row r="50" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="8"/>
@@ -3128,15 +3236,16 @@
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
       <c r="AL50" s="8"/>
-    </row>
-    <row r="51" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+      <c r="AM50" s="8"/>
+    </row>
+    <row r="51" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
       <c r="B51" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="8"/>
@@ -3170,15 +3279,16 @@
       <c r="AJ51" s="8"/>
       <c r="AK51" s="8"/>
       <c r="AL51" s="8"/>
-    </row>
-    <row r="52" spans="1:38" s="25" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="9" t="s">
-        <v>43</v>
+      <c r="AM51" s="8"/>
+    </row>
+    <row r="52" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="28"/>
+      <c r="B52" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="8"/>
@@ -3212,15 +3322,16 @@
       <c r="AJ52" s="8"/>
       <c r="AK52" s="8"/>
       <c r="AL52" s="8"/>
-    </row>
-    <row r="53" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+      <c r="AM52" s="8"/>
+    </row>
+    <row r="53" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
       <c r="B53" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="8"/>
@@ -3254,15 +3365,16 @@
       <c r="AJ53" s="8"/>
       <c r="AK53" s="8"/>
       <c r="AL53" s="8"/>
-    </row>
-    <row r="54" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="26" t="s">
-        <v>45</v>
+      <c r="AM53" s="8"/>
+    </row>
+    <row r="54" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="28"/>
+      <c r="B54" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="8"/>
@@ -3296,15 +3408,16 @@
       <c r="AJ54" s="8"/>
       <c r="AK54" s="8"/>
       <c r="AL54" s="8"/>
-    </row>
-    <row r="55" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="9" t="s">
-        <v>46</v>
+      <c r="AM54" s="8"/>
+    </row>
+    <row r="55" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="28"/>
+      <c r="B55" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="8"/>
@@ -3338,15 +3451,16 @@
       <c r="AJ55" s="8"/>
       <c r="AK55" s="8"/>
       <c r="AL55" s="8"/>
-    </row>
-    <row r="56" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="10" t="s">
-        <v>47</v>
+      <c r="AM55" s="8"/>
+    </row>
+    <row r="56" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="28"/>
+      <c r="B56" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="8"/>
@@ -3380,15 +3494,16 @@
       <c r="AJ56" s="8"/>
       <c r="AK56" s="8"/>
       <c r="AL56" s="8"/>
-    </row>
-    <row r="57" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="10" t="s">
-        <v>48</v>
+      <c r="AM56" s="8"/>
+    </row>
+    <row r="57" spans="1:39" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="28"/>
+      <c r="B57" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="8"/>
@@ -3422,15 +3537,16 @@
       <c r="AJ57" s="8"/>
       <c r="AK57" s="8"/>
       <c r="AL57" s="8"/>
-    </row>
-    <row r="58" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
+      <c r="AM57" s="8"/>
+    </row>
+    <row r="58" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="28"/>
       <c r="B58" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="8"/>
@@ -3464,15 +3580,16 @@
       <c r="AJ58" s="8"/>
       <c r="AK58" s="8"/>
       <c r="AL58" s="8"/>
-    </row>
-    <row r="59" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="10" t="s">
-        <v>50</v>
+      <c r="AM58" s="8"/>
+    </row>
+    <row r="59" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="28"/>
+      <c r="B59" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="8"/>
@@ -3506,15 +3623,16 @@
       <c r="AJ59" s="8"/>
       <c r="AK59" s="8"/>
       <c r="AL59" s="8"/>
-    </row>
-    <row r="60" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="10" t="s">
-        <v>51</v>
+      <c r="AM59" s="8"/>
+    </row>
+    <row r="60" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
+      <c r="B60" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="8"/>
@@ -3548,15 +3666,16 @@
       <c r="AJ60" s="8"/>
       <c r="AK60" s="8"/>
       <c r="AL60" s="8"/>
-    </row>
-    <row r="61" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="9" t="s">
-        <v>52</v>
+      <c r="AM60" s="8"/>
+    </row>
+    <row r="61" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="28"/>
+      <c r="B61" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="8"/>
@@ -3590,15 +3709,16 @@
       <c r="AJ61" s="8"/>
       <c r="AK61" s="8"/>
       <c r="AL61" s="8"/>
-    </row>
-    <row r="62" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
+      <c r="AM61" s="8"/>
+    </row>
+    <row r="62" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="28"/>
       <c r="B62" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="8"/>
@@ -3632,15 +3752,16 @@
       <c r="AJ62" s="8"/>
       <c r="AK62" s="8"/>
       <c r="AL62" s="8"/>
-    </row>
-    <row r="63" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="10" t="s">
-        <v>54</v>
+      <c r="AM62" s="8"/>
+    </row>
+    <row r="63" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="28"/>
+      <c r="B63" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="8"/>
@@ -3674,15 +3795,16 @@
       <c r="AJ63" s="8"/>
       <c r="AK63" s="8"/>
       <c r="AL63" s="8"/>
-    </row>
-    <row r="64" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="9" t="s">
-        <v>55</v>
+      <c r="AM63" s="8"/>
+    </row>
+    <row r="64" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="28"/>
+      <c r="B64" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="E64" s="14"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="8"/>
@@ -3716,15 +3838,16 @@
       <c r="AJ64" s="8"/>
       <c r="AK64" s="8"/>
       <c r="AL64" s="8"/>
-    </row>
-    <row r="65" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
+      <c r="AM64" s="8"/>
+    </row>
+    <row r="65" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="28"/>
       <c r="B65" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="8"/>
@@ -3758,15 +3881,16 @@
       <c r="AJ65" s="8"/>
       <c r="AK65" s="8"/>
       <c r="AL65" s="8"/>
-    </row>
-    <row r="66" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
+      <c r="AM65" s="8"/>
+    </row>
+    <row r="66" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="28"/>
       <c r="B66" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="8"/>
@@ -3800,15 +3924,16 @@
       <c r="AJ66" s="8"/>
       <c r="AK66" s="8"/>
       <c r="AL66" s="8"/>
-    </row>
-    <row r="67" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
+      <c r="AM66" s="8"/>
+    </row>
+    <row r="67" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="28"/>
       <c r="B67" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="8"/>
@@ -3842,15 +3967,16 @@
       <c r="AJ67" s="8"/>
       <c r="AK67" s="8"/>
       <c r="AL67" s="8"/>
-    </row>
-    <row r="68" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
+      <c r="AM67" s="8"/>
+    </row>
+    <row r="68" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="28"/>
       <c r="B68" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="8"/>
@@ -3884,15 +4010,16 @@
       <c r="AJ68" s="8"/>
       <c r="AK68" s="8"/>
       <c r="AL68" s="8"/>
-    </row>
-    <row r="69" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
+      <c r="AM68" s="8"/>
+    </row>
+    <row r="69" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="28"/>
       <c r="B69" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="8"/>
@@ -3926,15 +4053,16 @@
       <c r="AJ69" s="8"/>
       <c r="AK69" s="8"/>
       <c r="AL69" s="8"/>
-    </row>
-    <row r="70" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
+      <c r="AM69" s="8"/>
+    </row>
+    <row r="70" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="28"/>
       <c r="B70" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="E70" s="14"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="8"/>
@@ -3968,15 +4096,16 @@
       <c r="AJ70" s="8"/>
       <c r="AK70" s="8"/>
       <c r="AL70" s="8"/>
-    </row>
-    <row r="71" spans="1:38" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="10" t="s">
-        <v>61</v>
+      <c r="AM70" s="8"/>
+    </row>
+    <row r="71" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="28"/>
+      <c r="B71" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="8"/>
@@ -4010,153 +4139,224 @@
       <c r="AJ71" s="8"/>
       <c r="AK71" s="8"/>
       <c r="AL71" s="8"/>
-    </row>
-    <row r="72" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-    </row>
-    <row r="73" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-    </row>
-    <row r="74" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-    </row>
-    <row r="75" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-    </row>
-    <row r="76" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-      <c r="AE76" s="1"/>
-    </row>
-    <row r="77" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM71" s="8"/>
+    </row>
+    <row r="72" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="28"/>
+      <c r="B72" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="8"/>
+    </row>
+    <row r="73" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="28"/>
+      <c r="B73" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="8"/>
+    </row>
+    <row r="74" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="28"/>
+      <c r="B74" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="8"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="8"/>
+    </row>
+    <row r="75" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="28"/>
+      <c r="B75" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="8"/>
+      <c r="AM75" s="8"/>
+    </row>
+    <row r="76" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="29"/>
+      <c r="B76" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="8"/>
+      <c r="AG76" s="8"/>
+      <c r="AH76" s="8"/>
+      <c r="AI76" s="8"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="8"/>
+      <c r="AL76" s="8"/>
+      <c r="AM76" s="8"/>
+    </row>
+    <row r="77" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="F77" s="2"/>
@@ -4185,7 +4385,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="F78" s="2"/>
@@ -4214,23 +4414,169 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
+    <row r="79" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+    </row>
+    <row r="80" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+    </row>
+    <row r="81" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+    </row>
+    <row r="82" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+    </row>
+    <row r="83" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="A12:A76"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:AL3"/>
     <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A71"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
+++ b/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Project\의상_매칭_서비스\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="10220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$5</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
   <si>
     <t>시작 날짜</t>
   </si>
@@ -421,15 +416,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Crawling Code 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 수집 프로그래밍 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-30-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>현행업무/시스템분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Crawling Code 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 수집 프로그래밍 개발</t>
+    <t>데이터 전처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,6 +678,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -688,27 +715,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,7 +990,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -992,124 +998,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM83"/>
+  <dimension ref="A1:AM84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N18" sqref="M18:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="3"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" customWidth="1"/>
+    <col min="4" max="4" width="19.08203125" customWidth="1"/>
+    <col min="5" max="5" width="5.08203125" style="3"/>
     <col min="6" max="7" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.125" customWidth="1"/>
+    <col min="9" max="9" width="6.08203125" customWidth="1"/>
     <col min="20" max="38" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="AH1" s="19" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="AH1" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-    </row>
-    <row r="2" spans="1:39" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+    </row>
+    <row r="2" spans="1:39" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-    </row>
-    <row r="3" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+    </row>
+    <row r="3" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-    </row>
-    <row r="4" spans="1:39" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+    </row>
+    <row r="4" spans="1:39" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
         <v>89</v>
       </c>
@@ -1125,7 +1131,7 @@
       <c r="E4" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="25" t="s">
@@ -1224,17 +1230,17 @@
       <c r="AL4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AM4" s="23" t="s">
+      <c r="AM4" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="4">
@@ -1281,10 +1287,10 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="24"/>
-    </row>
-    <row r="6" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="AM5" s="20"/>
+    </row>
+    <row r="6" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1336,8 +1342,8 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="8"/>
     </row>
-    <row r="7" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="24"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1385,15 +1391,17 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="8"/>
     </row>
-    <row r="8" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="24"/>
       <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1401,7 +1409,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -1428,8 +1436,8 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
     </row>
-    <row r="9" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1471,8 +1479,8 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
     </row>
-    <row r="10" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1514,8 +1522,8 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="8"/>
     </row>
-    <row r="11" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="24"/>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1557,8 +1565,8 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="8"/>
     </row>
-    <row r="12" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="21" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -1602,8 +1610,8 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="8"/>
     </row>
-    <row r="13" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
         <v>116</v>
       </c>
@@ -1647,8 +1655,8 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="8"/>
     </row>
-    <row r="14" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="22"/>
       <c r="B14" s="5" t="s">
         <v>118</v>
       </c>
@@ -1690,15 +1698,17 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="8"/>
     </row>
-    <row r="15" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="17" t="s">
-        <v>121</v>
+    <row r="15" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="22"/>
+      <c r="B15" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1706,7 +1716,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
@@ -1733,9 +1743,9 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="8"/>
     </row>
-    <row r="16" spans="1:39" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="22"/>
+      <c r="B16" s="17" t="s">
         <v>120</v>
       </c>
       <c r="C16" s="8"/>
@@ -1776,10 +1786,10 @@
       <c r="AL16" s="8"/>
       <c r="AM16" s="8"/>
     </row>
-    <row r="17" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="17" t="s">
-        <v>8</v>
+    <row r="17" spans="1:39" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="22"/>
+      <c r="B17" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1819,10 +1829,10 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="8"/>
     </row>
-    <row r="18" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="9" t="s">
-        <v>119</v>
+    <row r="18" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="22"/>
+      <c r="B18" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1862,10 +1872,10 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="8"/>
     </row>
-    <row r="19" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+    <row r="19" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="22"/>
       <c r="B19" s="9" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1905,10 +1915,10 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="8"/>
     </row>
-    <row r="20" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+    <row r="20" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="22"/>
       <c r="B20" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1948,10 +1958,10 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="8"/>
     </row>
-    <row r="21" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+    <row r="21" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="22"/>
       <c r="B21" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1991,10 +2001,10 @@
       <c r="AL21" s="8"/>
       <c r="AM21" s="8"/>
     </row>
-    <row r="22" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="17" t="s">
-        <v>12</v>
+    <row r="22" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="22"/>
+      <c r="B22" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2034,10 +2044,10 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="8"/>
     </row>
-    <row r="23" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="9" t="s">
-        <v>13</v>
+    <row r="23" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="22"/>
+      <c r="B23" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2077,10 +2087,10 @@
       <c r="AL23" s="8"/>
       <c r="AM23" s="8"/>
     </row>
-    <row r="24" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+    <row r="24" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="22"/>
       <c r="B24" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2120,10 +2130,10 @@
       <c r="AL24" s="8"/>
       <c r="AM24" s="8"/>
     </row>
-    <row r="25" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+    <row r="25" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="22"/>
       <c r="B25" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2163,10 +2173,10 @@
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
     </row>
-    <row r="26" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+    <row r="26" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="22"/>
       <c r="B26" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2206,10 +2216,10 @@
       <c r="AL26" s="8"/>
       <c r="AM26" s="8"/>
     </row>
-    <row r="27" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="22"/>
       <c r="B27" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2249,10 +2259,10 @@
       <c r="AL27" s="8"/>
       <c r="AM27" s="8"/>
     </row>
-    <row r="28" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+    <row r="28" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="22"/>
       <c r="B28" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2292,10 +2302,10 @@
       <c r="AL28" s="8"/>
       <c r="AM28" s="8"/>
     </row>
-    <row r="29" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+    <row r="29" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="22"/>
       <c r="B29" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2335,10 +2345,10 @@
       <c r="AL29" s="8"/>
       <c r="AM29" s="8"/>
     </row>
-    <row r="30" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="10" t="s">
-        <v>20</v>
+    <row r="30" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="22"/>
+      <c r="B30" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2378,10 +2388,10 @@
       <c r="AL30" s="8"/>
       <c r="AM30" s="8"/>
     </row>
-    <row r="31" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+    <row r="31" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="22"/>
       <c r="B31" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2421,10 +2431,10 @@
       <c r="AL31" s="8"/>
       <c r="AM31" s="8"/>
     </row>
-    <row r="32" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+    <row r="32" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="22"/>
       <c r="B32" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2464,10 +2474,10 @@
       <c r="AL32" s="8"/>
       <c r="AM32" s="8"/>
     </row>
-    <row r="33" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="17" t="s">
-        <v>23</v>
+    <row r="33" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="22"/>
+      <c r="B33" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2507,10 +2517,10 @@
       <c r="AL33" s="8"/>
       <c r="AM33" s="8"/>
     </row>
-    <row r="34" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="9" t="s">
-        <v>24</v>
+    <row r="34" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="22"/>
+      <c r="B34" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2550,10 +2560,10 @@
       <c r="AL34" s="8"/>
       <c r="AM34" s="8"/>
     </row>
-    <row r="35" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="10" t="s">
-        <v>25</v>
+    <row r="35" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="22"/>
+      <c r="B35" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2593,10 +2603,10 @@
       <c r="AL35" s="8"/>
       <c r="AM35" s="8"/>
     </row>
-    <row r="36" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+    <row r="36" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="22"/>
       <c r="B36" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2636,10 +2646,10 @@
       <c r="AL36" s="8"/>
       <c r="AM36" s="8"/>
     </row>
-    <row r="37" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="9" t="s">
-        <v>85</v>
+    <row r="37" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="22"/>
+      <c r="B37" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2679,10 +2689,10 @@
       <c r="AL37" s="8"/>
       <c r="AM37" s="8"/>
     </row>
-    <row r="38" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="10" t="s">
-        <v>20</v>
+    <row r="38" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="22"/>
+      <c r="B38" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2722,10 +2732,10 @@
       <c r="AL38" s="8"/>
       <c r="AM38" s="8"/>
     </row>
-    <row r="39" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
+    <row r="39" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="22"/>
       <c r="B39" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2765,10 +2775,10 @@
       <c r="AL39" s="8"/>
       <c r="AM39" s="8"/>
     </row>
-    <row r="40" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
+    <row r="40" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="22"/>
       <c r="B40" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2808,10 +2818,10 @@
       <c r="AL40" s="8"/>
       <c r="AM40" s="8"/>
     </row>
-    <row r="41" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+    <row r="41" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="22"/>
       <c r="B41" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -2851,10 +2861,10 @@
       <c r="AL41" s="8"/>
       <c r="AM41" s="8"/>
     </row>
-    <row r="42" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="9" t="s">
-        <v>86</v>
+    <row r="42" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="22"/>
+      <c r="B42" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2894,10 +2904,10 @@
       <c r="AL42" s="8"/>
       <c r="AM42" s="8"/>
     </row>
-    <row r="43" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+    <row r="43" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="22"/>
       <c r="B43" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2937,10 +2947,10 @@
       <c r="AL43" s="8"/>
       <c r="AM43" s="8"/>
     </row>
-    <row r="44" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+    <row r="44" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="22"/>
       <c r="B44" s="9" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2980,10 +2990,10 @@
       <c r="AL44" s="8"/>
       <c r="AM44" s="8"/>
     </row>
-    <row r="45" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="10" t="s">
-        <v>30</v>
+    <row r="45" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="22"/>
+      <c r="B45" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3023,10 +3033,10 @@
       <c r="AL45" s="8"/>
       <c r="AM45" s="8"/>
     </row>
-    <row r="46" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="17" t="s">
-        <v>31</v>
+    <row r="46" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="22"/>
+      <c r="B46" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -3066,10 +3076,10 @@
       <c r="AL46" s="8"/>
       <c r="AM46" s="8"/>
     </row>
-    <row r="47" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="9" t="s">
-        <v>32</v>
+    <row r="47" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="22"/>
+      <c r="B47" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -3109,10 +3119,10 @@
       <c r="AL47" s="8"/>
       <c r="AM47" s="8"/>
     </row>
-    <row r="48" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
+    <row r="48" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="22"/>
       <c r="B48" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3152,10 +3162,10 @@
       <c r="AL48" s="8"/>
       <c r="AM48" s="8"/>
     </row>
-    <row r="49" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="17" t="s">
-        <v>34</v>
+    <row r="49" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="22"/>
+      <c r="B49" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -3195,10 +3205,10 @@
       <c r="AL49" s="8"/>
       <c r="AM49" s="8"/>
     </row>
-    <row r="50" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="9" t="s">
-        <v>35</v>
+    <row r="50" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="22"/>
+      <c r="B50" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -3238,10 +3248,10 @@
       <c r="AL50" s="8"/>
       <c r="AM50" s="8"/>
     </row>
-    <row r="51" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
+    <row r="51" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="22"/>
       <c r="B51" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -3281,10 +3291,10 @@
       <c r="AL51" s="8"/>
       <c r="AM51" s="8"/>
     </row>
-    <row r="52" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="17" t="s">
-        <v>37</v>
+    <row r="52" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="22"/>
+      <c r="B52" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3324,10 +3334,10 @@
       <c r="AL52" s="8"/>
       <c r="AM52" s="8"/>
     </row>
-    <row r="53" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="9" t="s">
-        <v>38</v>
+    <row r="53" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="22"/>
+      <c r="B53" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -3367,10 +3377,10 @@
       <c r="AL53" s="8"/>
       <c r="AM53" s="8"/>
     </row>
-    <row r="54" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
+    <row r="54" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="22"/>
       <c r="B54" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -3410,10 +3420,10 @@
       <c r="AL54" s="8"/>
       <c r="AM54" s="8"/>
     </row>
-    <row r="55" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="17" t="s">
-        <v>40</v>
+    <row r="55" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="22"/>
+      <c r="B55" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3453,10 +3463,10 @@
       <c r="AL55" s="8"/>
       <c r="AM55" s="8"/>
     </row>
-    <row r="56" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
-      <c r="B56" s="9" t="s">
-        <v>41</v>
+    <row r="56" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="22"/>
+      <c r="B56" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -3496,10 +3506,10 @@
       <c r="AL56" s="8"/>
       <c r="AM56" s="8"/>
     </row>
-    <row r="57" spans="1:39" s="16" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
+    <row r="57" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="22"/>
       <c r="B57" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -3539,10 +3549,10 @@
       <c r="AL57" s="8"/>
       <c r="AM57" s="8"/>
     </row>
-    <row r="58" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
+    <row r="58" spans="1:39" s="16" customFormat="1" ht="23" x14ac:dyDescent="0.45">
+      <c r="A58" s="22"/>
       <c r="B58" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3582,10 +3592,10 @@
       <c r="AL58" s="8"/>
       <c r="AM58" s="8"/>
     </row>
-    <row r="59" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="17" t="s">
-        <v>44</v>
+    <row r="59" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="22"/>
+      <c r="B59" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -3625,10 +3635,10 @@
       <c r="AL59" s="8"/>
       <c r="AM59" s="8"/>
     </row>
-    <row r="60" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
-      <c r="B60" s="9" t="s">
-        <v>45</v>
+    <row r="60" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="22"/>
+      <c r="B60" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -3668,10 +3678,10 @@
       <c r="AL60" s="8"/>
       <c r="AM60" s="8"/>
     </row>
-    <row r="61" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="28"/>
-      <c r="B61" s="10" t="s">
-        <v>46</v>
+    <row r="61" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="22"/>
+      <c r="B61" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3711,10 +3721,10 @@
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
     </row>
-    <row r="62" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
+    <row r="62" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="22"/>
       <c r="B62" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -3754,10 +3764,10 @@
       <c r="AL62" s="8"/>
       <c r="AM62" s="8"/>
     </row>
-    <row r="63" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
-      <c r="B63" s="9" t="s">
-        <v>48</v>
+    <row r="63" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="22"/>
+      <c r="B63" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3797,10 +3807,10 @@
       <c r="AL63" s="8"/>
       <c r="AM63" s="8"/>
     </row>
-    <row r="64" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
-      <c r="B64" s="10" t="s">
-        <v>49</v>
+    <row r="64" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="22"/>
+      <c r="B64" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3840,10 +3850,10 @@
       <c r="AL64" s="8"/>
       <c r="AM64" s="8"/>
     </row>
-    <row r="65" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
+    <row r="65" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="22"/>
       <c r="B65" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -3883,10 +3893,10 @@
       <c r="AL65" s="8"/>
       <c r="AM65" s="8"/>
     </row>
-    <row r="66" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="28"/>
-      <c r="B66" s="9" t="s">
-        <v>51</v>
+    <row r="66" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="22"/>
+      <c r="B66" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3926,10 +3936,10 @@
       <c r="AL66" s="8"/>
       <c r="AM66" s="8"/>
     </row>
-    <row r="67" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="28"/>
-      <c r="B67" s="10" t="s">
-        <v>52</v>
+    <row r="67" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="22"/>
+      <c r="B67" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3969,10 +3979,10 @@
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
     </row>
-    <row r="68" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
+    <row r="68" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="22"/>
       <c r="B68" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -4012,10 +4022,10 @@
       <c r="AL68" s="8"/>
       <c r="AM68" s="8"/>
     </row>
-    <row r="69" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="28"/>
-      <c r="B69" s="9" t="s">
-        <v>54</v>
+    <row r="69" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="22"/>
+      <c r="B69" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -4055,10 +4065,10 @@
       <c r="AL69" s="8"/>
       <c r="AM69" s="8"/>
     </row>
-    <row r="70" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="28"/>
-      <c r="B70" s="10" t="s">
-        <v>55</v>
+    <row r="70" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A70" s="22"/>
+      <c r="B70" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -4098,10 +4108,10 @@
       <c r="AL70" s="8"/>
       <c r="AM70" s="8"/>
     </row>
-    <row r="71" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="28"/>
-      <c r="B71" s="9" t="s">
-        <v>56</v>
+    <row r="71" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="22"/>
+      <c r="B71" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -4141,10 +4151,10 @@
       <c r="AL71" s="8"/>
       <c r="AM71" s="8"/>
     </row>
-    <row r="72" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
-      <c r="B72" s="10" t="s">
-        <v>57</v>
+    <row r="72" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="22"/>
+      <c r="B72" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -4184,10 +4194,10 @@
       <c r="AL72" s="8"/>
       <c r="AM72" s="8"/>
     </row>
-    <row r="73" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="28"/>
+    <row r="73" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A73" s="22"/>
       <c r="B73" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -4227,10 +4237,10 @@
       <c r="AL73" s="8"/>
       <c r="AM73" s="8"/>
     </row>
-    <row r="74" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
-      <c r="B74" s="9" t="s">
-        <v>59</v>
+    <row r="74" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="22"/>
+      <c r="B74" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -4270,9 +4280,9 @@
       <c r="AL74" s="8"/>
       <c r="AM74" s="8"/>
     </row>
-    <row r="75" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
-      <c r="B75" s="10" t="s">
+    <row r="75" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="22"/>
+      <c r="B75" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C75" s="8"/>
@@ -4313,10 +4323,10 @@
       <c r="AL75" s="8"/>
       <c r="AM75" s="8"/>
     </row>
-    <row r="76" spans="1:39" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
+    <row r="76" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A76" s="22"/>
       <c r="B76" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -4356,36 +4366,50 @@
       <c r="AL76" s="8"/>
       <c r="AM76" s="8"/>
     </row>
-    <row r="77" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
-    </row>
-    <row r="78" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A77" s="23"/>
+      <c r="B77" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="8"/>
+      <c r="AE77" s="8"/>
+      <c r="AF77" s="8"/>
+      <c r="AG77" s="8"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
+      <c r="AL77" s="8"/>
+      <c r="AM77" s="8"/>
+    </row>
+    <row r="78" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="F78" s="2"/>
@@ -4414,7 +4438,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="F79" s="2"/>
@@ -4443,7 +4467,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="F80" s="2"/>
@@ -4472,7 +4496,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="F81" s="2"/>
@@ -4501,7 +4525,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="F82" s="2"/>
@@ -4530,7 +4554,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="F83" s="2"/>
@@ -4559,10 +4583,44 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
+    <row r="84" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:AL3"/>
+    <mergeCell ref="A2:AE2"/>
     <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="A12:A76"/>
+    <mergeCell ref="A12:A77"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
@@ -4572,11 +4630,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:AL3"/>
-    <mergeCell ref="A2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
+++ b/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>시작 날짜</t>
   </si>
@@ -36,12 +36,6 @@
     <t>프로젝트 수행계획 수립</t>
   </si>
   <si>
-    <t>프로젝트 착수 보고(Kick-Off)</t>
-  </si>
-  <si>
-    <t>중간보고 및 확인</t>
-  </si>
-  <si>
     <t>종료보고 및 확인</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>프레임워크</t>
   </si>
   <si>
-    <t>중고차광장(As-Is  선반영)</t>
-  </si>
-  <si>
     <t>관리자모드(공통)</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
   </si>
   <si>
     <t>구현계획수립</t>
-  </si>
-  <si>
-    <t>릴리이즈 및 비상계획 수립</t>
   </si>
   <si>
     <t>교육훈련계획 수립</t>
@@ -284,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인화면 디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서브화면 디자인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>산출물(파일명)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,31 +388,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요구사항 정의서</t>
+    <t>03-30-2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현행업무/시스템분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-31-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상서비스_flowchart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산출물
+(구글드라이브/파일명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-28-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crawling Code 개발</t>
   </si>
   <si>
     <t>데이터 수집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Crawling Code 개발</t>
+    <t>데이터 수집 1차: 분류 알고리즘 학습용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 수집 프로그래밍 개발</t>
+    <t>데이터 수집 2차: 추천 알고리즘용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03-30-2020</t>
+    <t>데이터 전처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현행업무/시스템분석</t>
+    <t>파이널프로젝트_기획안.pptx
+파이널프로젝트_기획안.docx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 전처리</t>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트 착수 보고(Kick-Off) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">중간보고 및 확인 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +545,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +566,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,6 +712,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,19 +748,40 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,7 +1057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -998,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM84"/>
+  <dimension ref="A1:AM85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N18" sqref="M18:N18"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1012,237 +1079,237 @@
     <col min="5" max="5" width="5.08203125" style="3"/>
     <col min="6" max="7" width="8.75" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.08203125" customWidth="1"/>
-    <col min="20" max="38" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="38" width="5.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="AH1" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
+      <c r="A1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="AH1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
     </row>
     <row r="2" spans="1:39" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
+      <c r="A2" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
     </row>
     <row r="3" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
+        <v>105</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
     </row>
     <row r="4" spans="1:39" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="AI4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AH4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM4" s="19" t="s">
-        <v>112</v>
+      <c r="AM4" s="24" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:39" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="4">
         <v>43915</v>
       </c>
@@ -1264,10 +1331,18 @@
       <c r="O5" s="13">
         <v>43921</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="P5" s="4">
+        <v>43922</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>43923</v>
+      </c>
+      <c r="R5" s="4">
+        <v>43924</v>
+      </c>
+      <c r="S5" s="4">
+        <v>43925</v>
+      </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -1287,32 +1362,22 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="20"/>
+      <c r="AM5" s="25"/>
     </row>
     <row r="6" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
+      <c r="A6" s="42"/>
+      <c r="B6" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -1343,26 +1408,30 @@
       <c r="AM6" s="8"/>
     </row>
     <row r="7" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="24"/>
+      <c r="A7" s="29" t="s">
+        <v>2</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="14" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1392,17 +1461,23 @@
       <c r="AM7" s="8"/>
     </row>
     <row r="8" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="24"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="14"/>
+        <v>101</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="F8" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -1410,7 +1485,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -1436,21 +1511,31 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
     </row>
-    <row r="9" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:39" s="16" customFormat="1" ht="23" x14ac:dyDescent="0.45">
+      <c r="A9" s="29"/>
       <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="C9" s="31">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1480,9 +1565,9 @@
       <c r="AM9" s="8"/>
     </row>
     <row r="10" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="24"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1523,9 +1608,9 @@
       <c r="AM10" s="8"/>
     </row>
     <row r="11" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="24"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1566,11 +1651,9 @@
       <c r="AM11" s="8"/>
     </row>
     <row r="12" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>115</v>
+      <c r="A12" s="29"/>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1611,14 +1694,14 @@
       <c r="AM12" s="8"/>
     </row>
     <row r="13" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
-      <c r="B13" s="5" t="s">
-        <v>116</v>
+      <c r="A13" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>117</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="14"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1656,9 +1739,9 @@
       <c r="AM13" s="8"/>
     </row>
     <row r="14" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1699,16 +1782,14 @@
       <c r="AM14" s="8"/>
     </row>
     <row r="15" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="22"/>
-      <c r="B15" s="5" t="s">
-        <v>123</v>
+      <c r="A15" s="27"/>
+      <c r="B15" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="6" t="s">
-        <v>121</v>
-      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1716,7 +1797,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="7"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
@@ -1744,20 +1825,26 @@
       <c r="AM15" s="8"/>
     </row>
     <row r="16" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="22"/>
-      <c r="B16" s="17" t="s">
-        <v>120</v>
+      <c r="A16" s="27"/>
+      <c r="B16" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -1786,14 +1873,14 @@
       <c r="AL16" s="8"/>
       <c r="AM16" s="8"/>
     </row>
-    <row r="17" spans="1:39" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="22"/>
-      <c r="B17" s="9" t="s">
-        <v>119</v>
+    <row r="17" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="27"/>
+      <c r="B17" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="8"/>
@@ -1830,9 +1917,9 @@
       <c r="AM17" s="8"/>
     </row>
     <row r="18" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1872,139 +1959,135 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="8"/>
     </row>
-    <row r="19" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="22"/>
-      <c r="B19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-    </row>
-    <row r="20" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="22"/>
-      <c r="B20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="8"/>
-    </row>
-    <row r="21" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="22"/>
-      <c r="B21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
+    <row r="19" spans="1:39" s="41" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="27"/>
+      <c r="B19" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+    </row>
+    <row r="20" spans="1:39" s="41" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="27"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+    </row>
+    <row r="21" spans="1:39" s="41" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="27"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
     </row>
     <row r="22" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="22"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="9" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2045,9 +2128,9 @@
       <c r="AM22" s="8"/>
     </row>
     <row r="23" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="22"/>
-      <c r="B23" s="17" t="s">
-        <v>12</v>
+      <c r="A23" s="27"/>
+      <c r="B23" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2088,9 +2171,9 @@
       <c r="AM23" s="8"/>
     </row>
     <row r="24" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="22"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2131,9 +2214,9 @@
       <c r="AM24" s="8"/>
     </row>
     <row r="25" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="22"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2174,13 +2257,13 @@
       <c r="AM25" s="8"/>
     </row>
     <row r="26" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="22"/>
-      <c r="B26" s="9" t="s">
-        <v>15</v>
+      <c r="A26" s="27"/>
+      <c r="B26" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="8"/>
@@ -2216,53 +2299,53 @@
       <c r="AL26" s="8"/>
       <c r="AM26" s="8"/>
     </row>
-    <row r="27" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="22"/>
-      <c r="B27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="8"/>
+    <row r="27" spans="1:39" s="37" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="27"/>
+      <c r="B27" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
     </row>
     <row r="28" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="22"/>
-      <c r="B28" s="9" t="s">
-        <v>17</v>
+      <c r="A28" s="27"/>
+      <c r="B28" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2303,9 +2386,9 @@
       <c r="AM28" s="8"/>
     </row>
     <row r="29" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="22"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2346,9 +2429,9 @@
       <c r="AM29" s="8"/>
     </row>
     <row r="30" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="22"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2389,9 +2472,9 @@
       <c r="AM30" s="8"/>
     </row>
     <row r="31" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="22"/>
-      <c r="B31" s="10" t="s">
-        <v>20</v>
+      <c r="A31" s="27"/>
+      <c r="B31" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2432,9 +2515,9 @@
       <c r="AM31" s="8"/>
     </row>
     <row r="32" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="22"/>
-      <c r="B32" s="10" t="s">
-        <v>21</v>
+      <c r="A32" s="27"/>
+      <c r="B32" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2475,9 +2558,9 @@
       <c r="AM32" s="8"/>
     </row>
     <row r="33" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="22"/>
-      <c r="B33" s="10" t="s">
-        <v>22</v>
+      <c r="A33" s="27"/>
+      <c r="B33" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2518,9 +2601,9 @@
       <c r="AM33" s="8"/>
     </row>
     <row r="34" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="22"/>
-      <c r="B34" s="17" t="s">
-        <v>23</v>
+      <c r="A34" s="27"/>
+      <c r="B34" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2561,9 +2644,9 @@
       <c r="AM34" s="8"/>
     </row>
     <row r="35" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="22"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2604,9 +2687,9 @@
       <c r="AM35" s="8"/>
     </row>
     <row r="36" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="22"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2647,9 +2730,9 @@
       <c r="AM36" s="8"/>
     </row>
     <row r="37" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="22"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2690,9 +2773,9 @@
       <c r="AM37" s="8"/>
     </row>
     <row r="38" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="22"/>
-      <c r="B38" s="9" t="s">
-        <v>85</v>
+      <c r="A38" s="27"/>
+      <c r="B38" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2733,9 +2816,9 @@
       <c r="AM38" s="8"/>
     </row>
     <row r="39" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="22"/>
-      <c r="B39" s="10" t="s">
-        <v>20</v>
+      <c r="A39" s="27"/>
+      <c r="B39" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2776,9 +2859,9 @@
       <c r="AM39" s="8"/>
     </row>
     <row r="40" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="22"/>
-      <c r="B40" s="10" t="s">
-        <v>27</v>
+      <c r="A40" s="27"/>
+      <c r="B40" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2819,9 +2902,9 @@
       <c r="AM40" s="8"/>
     </row>
     <row r="41" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="22"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -2862,9 +2945,9 @@
       <c r="AM41" s="8"/>
     </row>
     <row r="42" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="22"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2905,9 +2988,9 @@
       <c r="AM42" s="8"/>
     </row>
     <row r="43" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="22"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2948,9 +3031,9 @@
       <c r="AM43" s="8"/>
     </row>
     <row r="44" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="22"/>
-      <c r="B44" s="9" t="s">
-        <v>87</v>
+      <c r="A44" s="27"/>
+      <c r="B44" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2991,9 +3074,9 @@
       <c r="AM44" s="8"/>
     </row>
     <row r="45" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="22"/>
-      <c r="B45" s="9" t="s">
-        <v>29</v>
+      <c r="A45" s="27"/>
+      <c r="B45" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3034,9 +3117,9 @@
       <c r="AM45" s="8"/>
     </row>
     <row r="46" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="22"/>
-      <c r="B46" s="10" t="s">
-        <v>30</v>
+      <c r="A46" s="27"/>
+      <c r="B46" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -3077,9 +3160,9 @@
       <c r="AM46" s="8"/>
     </row>
     <row r="47" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="22"/>
-      <c r="B47" s="17" t="s">
-        <v>31</v>
+      <c r="A47" s="27"/>
+      <c r="B47" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -3120,9 +3203,9 @@
       <c r="AM47" s="8"/>
     </row>
     <row r="48" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="22"/>
-      <c r="B48" s="9" t="s">
-        <v>32</v>
+      <c r="A48" s="27"/>
+      <c r="B48" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3163,9 +3246,9 @@
       <c r="AM48" s="8"/>
     </row>
     <row r="49" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="22"/>
-      <c r="B49" s="9" t="s">
-        <v>33</v>
+      <c r="A49" s="27"/>
+      <c r="B49" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -3206,9 +3289,9 @@
       <c r="AM49" s="8"/>
     </row>
     <row r="50" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="22"/>
-      <c r="B50" s="17" t="s">
-        <v>34</v>
+      <c r="A50" s="27"/>
+      <c r="B50" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -3249,9 +3332,9 @@
       <c r="AM50" s="8"/>
     </row>
     <row r="51" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="22"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -3292,9 +3375,9 @@
       <c r="AM51" s="8"/>
     </row>
     <row r="52" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="22"/>
-      <c r="B52" s="9" t="s">
-        <v>36</v>
+      <c r="A52" s="27"/>
+      <c r="B52" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3335,9 +3418,9 @@
       <c r="AM52" s="8"/>
     </row>
     <row r="53" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="22"/>
-      <c r="B53" s="17" t="s">
-        <v>37</v>
+      <c r="A53" s="27"/>
+      <c r="B53" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -3378,9 +3461,9 @@
       <c r="AM53" s="8"/>
     </row>
     <row r="54" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="22"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -3421,9 +3504,9 @@
       <c r="AM54" s="8"/>
     </row>
     <row r="55" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="22"/>
-      <c r="B55" s="9" t="s">
-        <v>39</v>
+      <c r="A55" s="27"/>
+      <c r="B55" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3464,9 +3547,9 @@
       <c r="AM55" s="8"/>
     </row>
     <row r="56" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A56" s="22"/>
-      <c r="B56" s="17" t="s">
-        <v>40</v>
+      <c r="A56" s="27"/>
+      <c r="B56" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -3507,9 +3590,9 @@
       <c r="AM56" s="8"/>
     </row>
     <row r="57" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="22"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -3549,10 +3632,10 @@
       <c r="AL57" s="8"/>
       <c r="AM57" s="8"/>
     </row>
-    <row r="58" spans="1:39" s="16" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A58" s="22"/>
-      <c r="B58" s="9" t="s">
-        <v>42</v>
+    <row r="58" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A58" s="27"/>
+      <c r="B58" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3593,9 +3676,9 @@
       <c r="AM58" s="8"/>
     </row>
     <row r="59" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="22"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -3635,10 +3718,10 @@
       <c r="AL59" s="8"/>
       <c r="AM59" s="8"/>
     </row>
-    <row r="60" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="22"/>
-      <c r="B60" s="17" t="s">
-        <v>44</v>
+    <row r="60" spans="1:39" s="16" customFormat="1" ht="23" x14ac:dyDescent="0.45">
+      <c r="A60" s="27"/>
+      <c r="B60" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -3679,9 +3762,9 @@
       <c r="AM60" s="8"/>
     </row>
     <row r="61" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="22"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3722,9 +3805,9 @@
       <c r="AM61" s="8"/>
     </row>
     <row r="62" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="22"/>
-      <c r="B62" s="10" t="s">
-        <v>46</v>
+      <c r="A62" s="27"/>
+      <c r="B62" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -3765,9 +3848,9 @@
       <c r="AM62" s="8"/>
     </row>
     <row r="63" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="22"/>
-      <c r="B63" s="10" t="s">
-        <v>47</v>
+      <c r="A63" s="27"/>
+      <c r="B63" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3808,9 +3891,9 @@
       <c r="AM63" s="8"/>
     </row>
     <row r="64" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="22"/>
-      <c r="B64" s="9" t="s">
-        <v>48</v>
+      <c r="A64" s="27"/>
+      <c r="B64" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3851,9 +3934,9 @@
       <c r="AM64" s="8"/>
     </row>
     <row r="65" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="22"/>
-      <c r="B65" s="10" t="s">
-        <v>49</v>
+      <c r="A65" s="27"/>
+      <c r="B65" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -3894,9 +3977,9 @@
       <c r="AM65" s="8"/>
     </row>
     <row r="66" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="22"/>
+      <c r="A66" s="27"/>
       <c r="B66" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3937,9 +4020,9 @@
       <c r="AM66" s="8"/>
     </row>
     <row r="67" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A67" s="22"/>
-      <c r="B67" s="9" t="s">
-        <v>51</v>
+      <c r="A67" s="27"/>
+      <c r="B67" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3980,9 +4063,9 @@
       <c r="AM67" s="8"/>
     </row>
     <row r="68" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="22"/>
-      <c r="B68" s="10" t="s">
-        <v>52</v>
+      <c r="A68" s="27"/>
+      <c r="B68" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -4023,9 +4106,9 @@
       <c r="AM68" s="8"/>
     </row>
     <row r="69" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A69" s="22"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -4066,9 +4149,9 @@
       <c r="AM69" s="8"/>
     </row>
     <row r="70" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A70" s="22"/>
-      <c r="B70" s="9" t="s">
-        <v>54</v>
+      <c r="A70" s="27"/>
+      <c r="B70" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -4109,9 +4192,9 @@
       <c r="AM70" s="8"/>
     </row>
     <row r="71" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A71" s="22"/>
-      <c r="B71" s="10" t="s">
-        <v>55</v>
+      <c r="A71" s="27"/>
+      <c r="B71" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -4152,9 +4235,9 @@
       <c r="AM71" s="8"/>
     </row>
     <row r="72" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A72" s="22"/>
-      <c r="B72" s="9" t="s">
-        <v>56</v>
+      <c r="A72" s="27"/>
+      <c r="B72" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -4195,9 +4278,9 @@
       <c r="AM72" s="8"/>
     </row>
     <row r="73" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A73" s="22"/>
-      <c r="B73" s="10" t="s">
-        <v>57</v>
+      <c r="A73" s="27"/>
+      <c r="B73" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -4238,9 +4321,9 @@
       <c r="AM73" s="8"/>
     </row>
     <row r="74" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A74" s="22"/>
+      <c r="A74" s="27"/>
       <c r="B74" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -4281,9 +4364,9 @@
       <c r="AM74" s="8"/>
     </row>
     <row r="75" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="22"/>
-      <c r="B75" s="9" t="s">
-        <v>59</v>
+      <c r="A75" s="27"/>
+      <c r="B75" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -4324,9 +4407,9 @@
       <c r="AM75" s="8"/>
     </row>
     <row r="76" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="22"/>
-      <c r="B76" s="10" t="s">
-        <v>59</v>
+      <c r="A76" s="27"/>
+      <c r="B76" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -4367,9 +4450,9 @@
       <c r="AM76" s="8"/>
     </row>
     <row r="77" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="23"/>
+      <c r="A77" s="27"/>
       <c r="B77" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -4409,34 +4492,48 @@
       <c r="AL77" s="8"/>
       <c r="AM77" s="8"/>
     </row>
-    <row r="78" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
+    <row r="78" spans="1:39" s="16" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="28"/>
+      <c r="B78" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+      <c r="AL78" s="8"/>
+      <c r="AM78" s="8"/>
     </row>
     <row r="79" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
@@ -4612,16 +4709,40 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
+    <row r="85" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:AL3"/>
-    <mergeCell ref="A2:AE2"/>
     <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="A12:A77"/>
-    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A13:A78"/>
+    <mergeCell ref="A7:A12"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -4630,6 +4751,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:AL3"/>
+    <mergeCell ref="A2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
+++ b/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
@@ -709,6 +709,129 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,137 +841,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,7 +1123,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1133,15 +1133,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="L22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.58203125" customWidth="1"/>
-    <col min="2" max="3" width="5.08203125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="30.58203125" style="52" customWidth="1"/>
+    <col min="2" max="3" width="5.08203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="30.58203125" style="32" customWidth="1"/>
     <col min="6" max="6" width="19.08203125" customWidth="1"/>
     <col min="7" max="7" width="5.08203125" style="1"/>
     <col min="8" max="9" width="8.75" style="1" bestFit="1" customWidth="1"/>
@@ -1150,136 +1150,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="AJ1" s="28" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="AJ1" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
     </row>
     <row r="2" spans="1:41" ht="21" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="54" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="53" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="68" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1372,21 +1372,21 @@
       <c r="AN4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="22" t="s">
+      <c r="AO4" s="63" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="2">
         <v>43915</v>
       </c>
@@ -1439,18 +1439,18 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="23"/>
+      <c r="AO5" s="64"/>
     </row>
     <row r="6" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="34">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="22">
         <v>1</v>
       </c>
       <c r="F6" s="6"/>
@@ -1497,14 +1497,14 @@
       <c r="AO6" s="6"/>
     </row>
     <row r="7" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="24"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="45" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="27" t="s">
         <v>74</v>
       </c>
       <c r="G7" s="12"/>
@@ -1544,14 +1544,14 @@
       <c r="AO7" s="6"/>
     </row>
     <row r="8" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="24"/>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="45" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="27" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="12"/>
@@ -1591,13 +1591,13 @@
       <c r="AO8" s="6"/>
     </row>
     <row r="9" spans="1:41" s="10" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A9" s="24"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="35">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="23">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1646,13 +1646,13 @@
       <c r="AO9" s="6"/>
     </row>
     <row r="10" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="24"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="36"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="6"/>
       <c r="G10" s="9"/>
       <c r="H10" s="4"/>
@@ -1691,13 +1691,13 @@
       <c r="AO10" s="6"/>
     </row>
     <row r="11" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="24"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="36"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
       <c r="H11" s="4"/>
@@ -1736,13 +1736,13 @@
       <c r="AO11" s="6"/>
     </row>
     <row r="12" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="24"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
       <c r="H12" s="4"/>
@@ -1781,13 +1781,13 @@
       <c r="AO12" s="6"/>
     </row>
     <row r="13" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="24"/>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="6" t="s">
         <v>91</v>
       </c>
@@ -1798,14 +1798,14 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -1828,15 +1828,15 @@
       <c r="AO13" s="6"/>
     </row>
     <row r="14" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="36"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
       <c r="H14" s="4"/>
@@ -1874,61 +1874,61 @@
       <c r="AN14" s="6"/>
       <c r="AO14" s="6"/>
     </row>
-    <row r="15" spans="1:41" s="59" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="24"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="31" t="s">
+    <row r="15" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="65"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57" t="s">
+      <c r="D15" s="54"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="55"/>
-      <c r="AI15" s="55"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="55"/>
-      <c r="AO15" s="55"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
     </row>
     <row r="16" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="24"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="36"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="6"/>
       <c r="G16" s="11"/>
       <c r="H16" s="4"/>
@@ -1966,157 +1966,157 @@
       <c r="AN16" s="6"/>
       <c r="AO16" s="6"/>
     </row>
-    <row r="17" spans="1:41" s="59" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="24"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="31" t="s">
+    <row r="17" spans="1:41" s="38" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="65"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="35">
+      <c r="D17" s="54"/>
+      <c r="E17" s="23">
         <v>1</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="58" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
-    </row>
-    <row r="18" spans="1:41" s="59" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="24"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="31" t="s">
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+    </row>
+    <row r="18" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="65"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="55"/>
-      <c r="AG18" s="55"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="55"/>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="55"/>
-      <c r="AM18" s="55"/>
-      <c r="AN18" s="55"/>
-      <c r="AO18" s="55"/>
-    </row>
-    <row r="19" spans="1:41" s="59" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="24"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47" t="s">
+      <c r="D18" s="54"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+    </row>
+    <row r="19" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="65"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="55"/>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="55"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="55"/>
-      <c r="AN19" s="55"/>
-      <c r="AO19" s="55"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
     </row>
     <row r="20" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="24"/>
-      <c r="B20" s="42" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="36"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="4"/>
@@ -2155,14 +2155,14 @@
       <c r="AO20" s="6"/>
     </row>
     <row r="21" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="24"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="40" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="62" t="s">
+      <c r="D21" s="45"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="41" t="s">
         <v>70</v>
       </c>
       <c r="G21" s="19"/>
@@ -2202,14 +2202,14 @@
       <c r="AO21" s="19"/>
     </row>
     <row r="22" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="24"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="40" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -2247,13 +2247,13 @@
       <c r="AO22" s="19"/>
     </row>
     <row r="23" spans="1:41" s="21" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="24"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="23">
         <v>1</v>
       </c>
       <c r="F23" s="18" t="s">
@@ -2267,7 +2267,7 @@
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
-      <c r="O23" s="60"/>
+      <c r="O23" s="39"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -2296,13 +2296,13 @@
       <c r="AO23" s="19"/>
     </row>
     <row r="24" spans="1:41" s="21" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="24"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="23">
         <v>1</v>
       </c>
       <c r="F24" s="18" t="s">
@@ -2316,9 +2316,9 @@
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
@@ -2345,13 +2345,13 @@
       <c r="AO24" s="19"/>
     </row>
     <row r="25" spans="1:41" s="21" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A25" s="24"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="23">
         <v>1</v>
       </c>
       <c r="F25" s="18" t="s">
@@ -2368,9 +2368,9 @@
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
@@ -2394,13 +2394,13 @@
       <c r="AO25" s="19"/>
     </row>
     <row r="26" spans="1:41" s="21" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A26" s="24"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="23">
         <v>1</v>
       </c>
       <c r="F26" s="18" t="s">
@@ -2410,7 +2410,7 @@
       <c r="H26" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="58" t="s">
+      <c r="I26" s="37" t="s">
         <v>99</v>
       </c>
       <c r="J26" s="19"/>
@@ -2422,10 +2422,10 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="19"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
       <c r="W26" s="19"/>
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
@@ -2447,13 +2447,13 @@
       <c r="AO26" s="19"/>
     </row>
     <row r="27" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="24"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="50" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
-      <c r="E27" s="37"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="20"/>
@@ -2492,13 +2492,13 @@
       <c r="AO27" s="19"/>
     </row>
     <row r="28" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="24"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="63" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="37"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="20"/>
@@ -2537,13 +2537,13 @@
       <c r="AO28" s="19"/>
     </row>
     <row r="29" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="24"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="66"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="20"/>
@@ -2582,13 +2582,13 @@
       <c r="AO29" s="19"/>
     </row>
     <row r="30" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="24"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="37"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
@@ -2627,13 +2627,13 @@
       <c r="AO30" s="19"/>
     </row>
     <row r="31" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="24"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="37"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="20"/>
@@ -2672,13 +2672,13 @@
       <c r="AO31" s="19"/>
     </row>
     <row r="32" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="24"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="49" t="s">
+      <c r="A32" s="65"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="37"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="20"/>
@@ -2717,13 +2717,13 @@
       <c r="AO32" s="19"/>
     </row>
     <row r="33" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="24"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="49" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="37"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="20"/>
@@ -2762,11 +2762,11 @@
       <c r="AO33" s="19"/>
     </row>
     <row r="34" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="24"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="37"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
@@ -2805,11 +2805,11 @@
       <c r="AO34" s="19"/>
     </row>
     <row r="35" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="24"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="37"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="20"/>
@@ -2848,13 +2848,13 @@
       <c r="AO35" s="19"/>
     </row>
     <row r="36" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="24"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="63" t="s">
+      <c r="A36" s="65"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="37"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="20"/>
@@ -2893,13 +2893,13 @@
       <c r="AO36" s="19"/>
     </row>
     <row r="37" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="24"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="37"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="20"/>
@@ -2938,13 +2938,13 @@
       <c r="AO37" s="19"/>
     </row>
     <row r="38" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="24"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49" t="s">
+      <c r="A38" s="65"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="37"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="20"/>
@@ -2983,13 +2983,13 @@
       <c r="AO38" s="19"/>
     </row>
     <row r="39" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="24"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="37"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="20"/>
@@ -3028,11 +3028,11 @@
       <c r="AO39" s="19"/>
     </row>
     <row r="40" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="24"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="36"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="6"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -3071,11 +3071,11 @@
       <c r="AO40" s="6"/>
     </row>
     <row r="41" spans="1:41" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="24"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="38"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
@@ -3114,13 +3114,13 @@
       <c r="AO41" s="14"/>
     </row>
     <row r="42" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="24"/>
-      <c r="B42" s="42" t="s">
+      <c r="A42" s="65"/>
+      <c r="B42" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="36"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="6"/>
       <c r="G42" s="9"/>
       <c r="H42" s="4"/>
@@ -3159,13 +3159,13 @@
       <c r="AO42" s="6"/>
     </row>
     <row r="43" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="24"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="18"/>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="36"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="6"/>
       <c r="G43" s="12"/>
       <c r="H43" s="4"/>
@@ -3204,11 +3204,11 @@
       <c r="AO43" s="6"/>
     </row>
     <row r="44" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="24"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="61"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="36"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="6"/>
       <c r="G44" s="12"/>
       <c r="H44" s="4"/>
@@ -3247,11 +3247,11 @@
       <c r="AO44" s="6"/>
     </row>
     <row r="45" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="24"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="18"/>
-      <c r="C45" s="61"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="36"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="6"/>
       <c r="G45" s="12"/>
       <c r="H45" s="4"/>
@@ -3290,13 +3290,13 @@
       <c r="AO45" s="6"/>
     </row>
     <row r="46" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="24"/>
-      <c r="B46" s="43" t="s">
+      <c r="A46" s="65"/>
+      <c r="B46" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="36"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="6"/>
       <c r="G46" s="12"/>
       <c r="H46" s="4"/>
@@ -3335,11 +3335,11 @@
       <c r="AO46" s="6"/>
     </row>
     <row r="47" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="24"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="18"/>
-      <c r="C47" s="61"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="36"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="6"/>
       <c r="G47" s="12"/>
       <c r="H47" s="4"/>
@@ -3378,11 +3378,11 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="24"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="36"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="6"/>
       <c r="G48" s="9"/>
       <c r="H48" s="4"/>
@@ -3422,6 +3422,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="A14:A48"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:AN3"/>
+    <mergeCell ref="A2:AG2"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B13:D13"/>
@@ -3438,28 +3460,6 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:AN3"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="A14:A48"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
+++ b/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>시작 날짜</t>
   </si>
@@ -326,7 +326,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001_파일전처리.jpynb
+    <t>분류 알고리즘 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 알고리즘 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crawling Code 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 요구사항 정의 및 Flow-chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 지표 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 파일 설명.docx</t>
+  </si>
+  <si>
+    <t>데이터 및 파일별 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 데이터 Transformation 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 학습: texture 분류 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 학습: style 분류 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 학습: shape 분류 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 데이터 상의, 하의 구분 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-02-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001_파일전처리_확장자.jpynb
 list_attr_cloth.csv
 list_attr_img.csv
 list_category_cloth.csv
@@ -334,7 +393,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002_파일전처리.jpynb
+    <t>002_파일전처리_공백.jpynb
 attr_cloth_final.csv
 attr_img_final.csv
 category_cloth_final.csv
@@ -342,76 +401,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002_파일전처리.jpynb
+    <t>002_파일전처리_공백.jpynb
 category_total.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분류 알고리즘 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천 알고리즘 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crawling Code 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부 요구사항 정의 및 Flow-chart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델 검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델 지표 검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 파일 설명.docx</t>
-  </si>
-  <si>
-    <t>데이터 및 파일별 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003_파일전처리.jpynb
-total_data_final.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 데이터 Transformation 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI 학습: texture 분류 모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI 학습: style 분류 모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI 학습: shape 분류 모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 데이터 상의, 하의 구분 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-04-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-02-2020</t>
+    <t>003_데이터전처리_병합.jpynb
+004_데이터전처리_병합_수정.jpynb
+total_data_final.csv
+total_data_final_2.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-06-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-29-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-31-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-01-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-03-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006_texture_분류모델.jpynb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +568,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,6 +815,54 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -796,12 +884,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -814,41 +896,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,7 +1175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1131,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO48"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1142,7 +1194,7 @@
     <col min="1" max="1" width="10.58203125" customWidth="1"/>
     <col min="2" max="3" width="5.08203125" style="32" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="19.08203125" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
     <col min="7" max="7" width="5.08203125" style="1"/>
     <col min="8" max="9" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.08203125" customWidth="1"/>
@@ -1150,60 +1202,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="AJ1" s="59" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="AJ1" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
     </row>
     <row r="2" spans="1:41" ht="21" x14ac:dyDescent="0.45">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -1214,72 +1266,72 @@
       <c r="D3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
     </row>
     <row r="4" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="66" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="51" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1372,21 +1424,21 @@
       <c r="AN4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="63" t="s">
+      <c r="AO4" s="46" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
       <c r="K5" s="2">
         <v>43915</v>
       </c>
@@ -1417,19 +1469,39 @@
       <c r="T5" s="2">
         <v>43924</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="45">
         <v>43925</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="V5" s="45">
+        <v>43926</v>
+      </c>
+      <c r="W5" s="45">
+        <v>43927</v>
+      </c>
+      <c r="X5" s="45">
+        <v>43928</v>
+      </c>
+      <c r="Y5" s="45">
+        <v>43929</v>
+      </c>
+      <c r="Z5" s="45">
+        <v>43930</v>
+      </c>
+      <c r="AA5" s="45">
+        <v>43931</v>
+      </c>
+      <c r="AB5" s="45">
+        <v>43932</v>
+      </c>
+      <c r="AC5" s="45">
+        <v>43933</v>
+      </c>
+      <c r="AD5" s="45">
+        <v>43934</v>
+      </c>
+      <c r="AE5" s="45">
+        <v>43935</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1439,17 +1511,17 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="64"/>
+      <c r="AO5" s="47"/>
     </row>
     <row r="6" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="22">
         <v>1</v>
       </c>
@@ -1497,13 +1569,13 @@
       <c r="AO6" s="6"/>
     </row>
     <row r="7" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="65"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="27" t="s">
         <v>74</v>
       </c>
@@ -1544,13 +1616,13 @@
       <c r="AO7" s="6"/>
     </row>
     <row r="8" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="65"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="22"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="27" t="s">
         <v>64</v>
       </c>
@@ -1591,12 +1663,12 @@
       <c r="AO8" s="6"/>
     </row>
     <row r="9" spans="1:41" s="10" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A9" s="65"/>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="23">
         <v>1</v>
       </c>
@@ -1646,12 +1718,12 @@
       <c r="AO9" s="6"/>
     </row>
     <row r="10" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="65"/>
-      <c r="B10" s="57" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="24"/>
       <c r="F10" s="6"/>
       <c r="G10" s="9"/>
@@ -1691,12 +1763,12 @@
       <c r="AO10" s="6"/>
     </row>
     <row r="11" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="24"/>
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
@@ -1736,12 +1808,12 @@
       <c r="AO11" s="6"/>
     </row>
     <row r="12" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="65"/>
-      <c r="B12" s="57" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="24"/>
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
@@ -1781,15 +1853,15 @@
       <c r="AO12" s="6"/>
     </row>
     <row r="13" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="65"/>
-      <c r="B13" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="24"/>
       <c r="F13" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="4"/>
@@ -1806,8 +1878,8 @@
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
       <c r="U13" s="39"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -1828,14 +1900,14 @@
       <c r="AO13" s="6"/>
     </row>
     <row r="14" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="24"/>
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
@@ -1875,13 +1947,13 @@
       <c r="AO14" s="6"/>
     </row>
     <row r="15" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="65"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="36" t="s">
         <v>67</v>
       </c>
@@ -1922,12 +1994,12 @@
       <c r="AO15" s="34"/>
     </row>
     <row r="16" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="65"/>
-      <c r="B16" s="52" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="24"/>
       <c r="F16" s="6"/>
       <c r="G16" s="11"/>
@@ -1967,19 +2039,21 @@
       <c r="AO16" s="6"/>
     </row>
     <row r="17" spans="1:41" s="38" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="65"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="54"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="23">
         <v>1</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="34" t="s">
+        <v>103</v>
+      </c>
       <c r="H17" s="37" t="s">
         <v>57</v>
       </c>
@@ -2020,12 +2094,12 @@
       <c r="AO17" s="34"/>
     </row>
     <row r="18" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="54"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="35"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -2065,11 +2139,11 @@
       <c r="AO18" s="34"/>
     </row>
     <row r="19" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="65"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="34"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="34"/>
@@ -2110,12 +2184,12 @@
       <c r="AO19" s="34"/>
     </row>
     <row r="20" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="65"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="24"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
@@ -2155,13 +2229,13 @@
       <c r="AO20" s="6"/>
     </row>
     <row r="21" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="65"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="25"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="41" t="s">
         <v>70</v>
       </c>
@@ -2202,12 +2276,12 @@
       <c r="AO21" s="19"/>
     </row>
     <row r="22" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="65"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="25"/>
       <c r="F22" s="28"/>
       <c r="G22" s="19"/>
@@ -2247,7 +2321,7 @@
       <c r="AO22" s="19"/>
     </row>
     <row r="23" spans="1:41" s="21" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="65"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="34"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
@@ -2257,11 +2331,17 @@
         <v>1</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -2296,7 +2376,7 @@
       <c r="AO23" s="19"/>
     </row>
     <row r="24" spans="1:41" s="21" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="65"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="34"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
@@ -2306,11 +2386,17 @@
         <v>1</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+        <v>97</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -2345,7 +2431,7 @@
       <c r="AO24" s="19"/>
     </row>
     <row r="25" spans="1:41" s="21" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A25" s="65"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="34"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
@@ -2355,11 +2441,17 @@
         <v>1</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
@@ -2393,8 +2485,8 @@
       <c r="AN25" s="19"/>
       <c r="AO25" s="19"/>
     </row>
-    <row r="26" spans="1:41" s="21" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A26" s="65"/>
+    <row r="26" spans="1:41" s="21" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="48"/>
       <c r="B26" s="34"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
@@ -2404,14 +2496,16 @@
         <v>1</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="H26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="37" t="s">
         <v>100</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>99</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
@@ -2426,7 +2520,7 @@
       <c r="T26" s="39"/>
       <c r="U26" s="39"/>
       <c r="V26" s="39"/>
-      <c r="W26" s="19"/>
+      <c r="W26" s="39"/>
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
@@ -2447,17 +2541,15 @@
       <c r="AO26" s="19"/>
     </row>
     <row r="27" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="65"/>
-      <c r="B27" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="19"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
@@ -2492,12 +2584,12 @@
       <c r="AO27" s="19"/>
     </row>
     <row r="28" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="65"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="56"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="25"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -2537,12 +2629,12 @@
       <c r="AO28" s="19"/>
     </row>
     <row r="29" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="65"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="19" t="s">
-        <v>87</v>
-      </c>
+      <c r="C29" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="70"/>
       <c r="E29" s="25"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -2582,13 +2674,13 @@
       <c r="AO29" s="19"/>
     </row>
     <row r="30" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="65"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="25"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="71"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
@@ -2627,16 +2719,20 @@
       <c r="AO30" s="19"/>
     </row>
     <row r="31" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="65"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="E31" s="71"/>
+      <c r="F31" s="28" t="s">
+        <v>108</v>
+      </c>
       <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="H31" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="I31" s="20"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
@@ -2651,7 +2747,7 @@
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
+      <c r="W31" s="39"/>
       <c r="X31" s="19"/>
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
@@ -2672,16 +2768,20 @@
       <c r="AO31" s="19"/>
     </row>
     <row r="32" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="65"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="42"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="E32" s="71"/>
+      <c r="F32" s="28" t="s">
+        <v>108</v>
+      </c>
       <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="H32" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="I32" s="20"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
@@ -2696,7 +2796,7 @@
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
+      <c r="W32" s="39"/>
       <c r="X32" s="19"/>
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
@@ -2717,11 +2817,11 @@
       <c r="AO32" s="19"/>
     </row>
     <row r="33" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="65"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="30"/>
       <c r="C33" s="42"/>
       <c r="D33" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="19"/>
@@ -2762,10 +2862,12 @@
       <c r="AO33" s="19"/>
     </row>
     <row r="34" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="65"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="30"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="30" t="s">
+        <v>93</v>
+      </c>
       <c r="E34" s="25"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
@@ -2805,7 +2907,7 @@
       <c r="AO34" s="19"/>
     </row>
     <row r="35" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="65"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="30"/>
       <c r="C35" s="42"/>
       <c r="D35" s="30"/>
@@ -2848,12 +2950,10 @@
       <c r="AO35" s="19"/>
     </row>
     <row r="36" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="65"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="56"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="25"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -2893,12 +2993,12 @@
       <c r="AO36" s="19"/>
     </row>
     <row r="37" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="65"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="19" t="s">
-        <v>87</v>
-      </c>
+      <c r="C37" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="70"/>
       <c r="E37" s="25"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
@@ -2938,11 +3038,11 @@
       <c r="AO37" s="19"/>
     </row>
     <row r="38" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="65"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
-        <v>98</v>
+      <c r="D38" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="19"/>
@@ -2983,11 +3083,11 @@
       <c r="AO38" s="19"/>
     </row>
     <row r="39" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="65"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="19"/>
@@ -3027,147 +3127,147 @@
       <c r="AN39" s="19"/>
       <c r="AO39" s="19"/>
     </row>
-    <row r="40" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="65"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-    </row>
-    <row r="41" spans="1:41" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="65"/>
+    <row r="40" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="48"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+    </row>
+    <row r="41" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="48"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="14"/>
-      <c r="AL41" s="14"/>
-      <c r="AM41" s="14"/>
-      <c r="AN41" s="14"/>
-      <c r="AO41" s="14"/>
-    </row>
-    <row r="42" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="65"/>
-      <c r="B42" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="6"/>
-      <c r="AN42" s="6"/>
-      <c r="AO42" s="6"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+    </row>
+    <row r="42" spans="1:41" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="48"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
     </row>
     <row r="43" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="65"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="45"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="24"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="12"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="6"/>
@@ -3204,10 +3304,12 @@
       <c r="AO43" s="6"/>
     </row>
     <row r="44" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="65"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="61"/>
       <c r="E44" s="24"/>
       <c r="F44" s="6"/>
       <c r="G44" s="12"/>
@@ -3247,7 +3349,7 @@
       <c r="AO44" s="6"/>
     </row>
     <row r="45" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="65"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="18"/>
       <c r="C45" s="40"/>
       <c r="D45" s="18"/>
@@ -3290,12 +3392,10 @@
       <c r="AO45" s="6"/>
     </row>
     <row r="46" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="65"/>
-      <c r="B46" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="24"/>
       <c r="F46" s="6"/>
       <c r="G46" s="12"/>
@@ -3335,10 +3435,12 @@
       <c r="AO46" s="6"/>
     </row>
     <row r="47" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="65"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="24"/>
       <c r="F47" s="6"/>
       <c r="G47" s="12"/>
@@ -3378,13 +3480,13 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="65"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="24"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="9"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="6"/>
@@ -3420,10 +3522,75 @@
       <c r="AN48" s="6"/>
       <c r="AO48" s="6"/>
     </row>
+    <row r="49" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="48"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+      <c r="AN49" s="6"/>
+      <c r="AO49" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:AN3"/>
+    <mergeCell ref="A2:AG2"/>
     <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="A14:A48"/>
+    <mergeCell ref="A14:A49"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
@@ -3438,28 +3605,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:AN3"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
+++ b/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
@@ -821,6 +821,69 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,69 +901,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1175,7 +1175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1202,60 +1202,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="AJ1" s="56" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="AJ1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:41" ht="21" x14ac:dyDescent="0.45">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -1266,72 +1266,72 @@
       <c r="D3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58" t="s">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
     </row>
     <row r="4" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="49" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="72" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1424,21 +1424,21 @@
       <c r="AN4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="46" t="s">
+      <c r="AO4" s="67" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="2">
         <v>43915</v>
       </c>
@@ -1511,17 +1511,17 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="47"/>
+      <c r="AO5" s="68"/>
     </row>
     <row r="6" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="22">
         <v>1</v>
       </c>
@@ -1569,13 +1569,13 @@
       <c r="AO6" s="6"/>
     </row>
     <row r="7" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="48"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="72"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="27" t="s">
         <v>74</v>
       </c>
@@ -1616,13 +1616,13 @@
       <c r="AO7" s="6"/>
     </row>
     <row r="8" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="48"/>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="72"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="27" t="s">
         <v>64</v>
       </c>
@@ -1663,12 +1663,12 @@
       <c r="AO8" s="6"/>
     </row>
     <row r="9" spans="1:41" s="10" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A9" s="48"/>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="23">
         <v>1</v>
       </c>
@@ -1718,12 +1718,12 @@
       <c r="AO9" s="6"/>
     </row>
     <row r="10" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="48"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="24"/>
       <c r="F10" s="6"/>
       <c r="G10" s="9"/>
@@ -1763,12 +1763,12 @@
       <c r="AO10" s="6"/>
     </row>
     <row r="11" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
@@ -1808,12 +1808,12 @@
       <c r="AO11" s="6"/>
     </row>
     <row r="12" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="48"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="24"/>
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
@@ -1853,12 +1853,12 @@
       <c r="AO12" s="6"/>
     </row>
     <row r="13" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="48"/>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="69"/>
+      <c r="B13" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="24"/>
       <c r="F13" s="6" t="s">
         <v>88</v>
@@ -1900,14 +1900,14 @@
       <c r="AO13" s="6"/>
     </row>
     <row r="14" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="24"/>
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
@@ -1947,13 +1947,13 @@
       <c r="AO14" s="6"/>
     </row>
     <row r="15" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="48"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="71"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="36" t="s">
         <v>67</v>
       </c>
@@ -1994,12 +1994,12 @@
       <c r="AO15" s="34"/>
     </row>
     <row r="16" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="48"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="24"/>
       <c r="F16" s="6"/>
       <c r="G16" s="11"/>
@@ -2039,12 +2039,12 @@
       <c r="AO16" s="6"/>
     </row>
     <row r="17" spans="1:41" s="38" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="48"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="68"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="23">
         <v>1</v>
       </c>
@@ -2094,12 +2094,12 @@
       <c r="AO17" s="34"/>
     </row>
     <row r="18" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="48"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="35"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -2139,7 +2139,7 @@
       <c r="AO18" s="34"/>
     </row>
     <row r="19" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="48"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="34"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29" t="s">
@@ -2184,12 +2184,12 @@
       <c r="AO19" s="34"/>
     </row>
     <row r="20" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="48"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="24"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
@@ -2229,13 +2229,13 @@
       <c r="AO20" s="6"/>
     </row>
     <row r="21" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="48"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="71"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="41" t="s">
         <v>70</v>
       </c>
@@ -2276,12 +2276,12 @@
       <c r="AO21" s="19"/>
     </row>
     <row r="22" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="48"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="61"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="25"/>
       <c r="F22" s="28"/>
       <c r="G22" s="19"/>
@@ -2321,7 +2321,7 @@
       <c r="AO22" s="19"/>
     </row>
     <row r="23" spans="1:41" s="21" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="48"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="34"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
@@ -2376,7 +2376,7 @@
       <c r="AO23" s="19"/>
     </row>
     <row r="24" spans="1:41" s="21" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="48"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="34"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
@@ -2431,7 +2431,7 @@
       <c r="AO24" s="19"/>
     </row>
     <row r="25" spans="1:41" s="21" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A25" s="48"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="34"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
@@ -2485,8 +2485,8 @@
       <c r="AN25" s="19"/>
       <c r="AO25" s="19"/>
     </row>
-    <row r="26" spans="1:41" s="21" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="48"/>
+    <row r="26" spans="1:41" s="21" customFormat="1" ht="46" x14ac:dyDescent="0.45">
+      <c r="A26" s="69"/>
       <c r="B26" s="34"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
@@ -2541,7 +2541,7 @@
       <c r="AO26" s="19"/>
     </row>
     <row r="27" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="48"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="44"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -2584,12 +2584,12 @@
       <c r="AO27" s="19"/>
     </row>
     <row r="28" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="48"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="25"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -2629,12 +2629,12 @@
       <c r="AO28" s="19"/>
     </row>
     <row r="29" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="48"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="70"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="25"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -2674,13 +2674,13 @@
       <c r="AO29" s="19"/>
     </row>
     <row r="30" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="48"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="30"/>
       <c r="C30" s="43"/>
       <c r="D30" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="71"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
@@ -2719,13 +2719,13 @@
       <c r="AO30" s="19"/>
     </row>
     <row r="31" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="48"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="71"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="28" t="s">
         <v>108</v>
       </c>
@@ -2768,13 +2768,13 @@
       <c r="AO31" s="19"/>
     </row>
     <row r="32" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="48"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="71"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="28" t="s">
         <v>108</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="AO32" s="19"/>
     </row>
     <row r="33" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="48"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="30"/>
       <c r="C33" s="42"/>
       <c r="D33" s="30" t="s">
@@ -2841,7 +2841,7 @@
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
+      <c r="W33" s="39"/>
       <c r="X33" s="19"/>
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
@@ -2862,7 +2862,7 @@
       <c r="AO33" s="19"/>
     </row>
     <row r="34" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="48"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="30"/>
       <c r="C34" s="42"/>
       <c r="D34" s="30" t="s">
@@ -2907,7 +2907,7 @@
       <c r="AO34" s="19"/>
     </row>
     <row r="35" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="48"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="30"/>
       <c r="C35" s="42"/>
       <c r="D35" s="30"/>
@@ -2950,7 +2950,7 @@
       <c r="AO35" s="19"/>
     </row>
     <row r="36" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="48"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="30"/>
       <c r="C36" s="42"/>
       <c r="D36" s="30"/>
@@ -2993,12 +2993,12 @@
       <c r="AO36" s="19"/>
     </row>
     <row r="37" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="48"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="70"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="25"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
@@ -3038,7 +3038,7 @@
       <c r="AO37" s="19"/>
     </row>
     <row r="38" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="48"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="19" t="s">
@@ -3083,7 +3083,7 @@
       <c r="AO38" s="19"/>
     </row>
     <row r="39" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="48"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
@@ -3128,7 +3128,7 @@
       <c r="AO39" s="19"/>
     </row>
     <row r="40" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="48"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="30" t="s">
@@ -3173,7 +3173,7 @@
       <c r="AO40" s="19"/>
     </row>
     <row r="41" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="48"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
@@ -3216,7 +3216,7 @@
       <c r="AO41" s="6"/>
     </row>
     <row r="42" spans="1:41" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="48"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
@@ -3259,12 +3259,12 @@
       <c r="AO42" s="14"/>
     </row>
     <row r="43" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="48"/>
-      <c r="B43" s="54" t="s">
+      <c r="A43" s="69"/>
+      <c r="B43" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="24"/>
       <c r="F43" s="6"/>
       <c r="G43" s="9"/>
@@ -3304,12 +3304,12 @@
       <c r="AO43" s="6"/>
     </row>
     <row r="44" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="48"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="61"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="24"/>
       <c r="F44" s="6"/>
       <c r="G44" s="12"/>
@@ -3349,7 +3349,7 @@
       <c r="AO44" s="6"/>
     </row>
     <row r="45" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="48"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="18"/>
       <c r="C45" s="40"/>
       <c r="D45" s="18"/>
@@ -3392,7 +3392,7 @@
       <c r="AO45" s="6"/>
     </row>
     <row r="46" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="48"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="18"/>
       <c r="C46" s="40"/>
       <c r="D46" s="18"/>
@@ -3435,12 +3435,12 @@
       <c r="AO46" s="6"/>
     </row>
     <row r="47" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="48"/>
-      <c r="B47" s="62" t="s">
+      <c r="A47" s="69"/>
+      <c r="B47" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="24"/>
       <c r="F47" s="6"/>
       <c r="G47" s="12"/>
@@ -3480,7 +3480,7 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="48"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="18"/>
       <c r="C48" s="40"/>
       <c r="D48" s="18"/>
@@ -3523,7 +3523,7 @@
       <c r="AO48" s="6"/>
     </row>
     <row r="49" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="48"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
@@ -3567,6 +3567,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="A14:A49"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:AN3"/>
+    <mergeCell ref="A2:AG2"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B13:D13"/>
@@ -3583,28 +3605,6 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:AN3"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="A14:A49"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
+++ b/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
@@ -827,6 +827,48 @@
     <xf numFmtId="9" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -848,12 +890,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -865,42 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1175,7 +1175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1202,60 +1202,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="AJ1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
     </row>
     <row r="2" spans="1:41" ht="21" x14ac:dyDescent="0.45">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -1266,72 +1266,72 @@
       <c r="D3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
     </row>
     <row r="4" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="70" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="53" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1424,21 +1424,21 @@
       <c r="AN4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="67" t="s">
+      <c r="AO4" s="48" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="2">
         <v>43915</v>
       </c>
@@ -1511,17 +1511,17 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="68"/>
+      <c r="AO5" s="49"/>
     </row>
     <row r="6" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="22">
         <v>1</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="AO6" s="6"/>
     </row>
     <row r="7" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="69"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="AO7" s="6"/>
     </row>
     <row r="8" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="69"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="55" t="s">
         <v>47</v>
       </c>
@@ -1663,12 +1663,12 @@
       <c r="AO8" s="6"/>
     </row>
     <row r="9" spans="1:41" s="10" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A9" s="69"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="23">
         <v>1</v>
       </c>
@@ -1718,12 +1718,12 @@
       <c r="AO9" s="6"/>
     </row>
     <row r="10" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="69"/>
-      <c r="B10" s="61" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="24"/>
       <c r="F10" s="6"/>
       <c r="G10" s="9"/>
@@ -1763,12 +1763,12 @@
       <c r="AO10" s="6"/>
     </row>
     <row r="11" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="69"/>
-      <c r="B11" s="61" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="24"/>
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
@@ -1808,12 +1808,12 @@
       <c r="AO11" s="6"/>
     </row>
     <row r="12" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="69"/>
-      <c r="B12" s="61" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="24"/>
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
@@ -1853,12 +1853,12 @@
       <c r="AO12" s="6"/>
     </row>
     <row r="13" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="69"/>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="24"/>
       <c r="F13" s="6" t="s">
         <v>88</v>
@@ -1900,7 +1900,7 @@
       <c r="AO13" s="6"/>
     </row>
     <row r="14" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="56" t="s">
@@ -1947,12 +1947,12 @@
       <c r="AO14" s="6"/>
     </row>
     <row r="15" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="69"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="46"/>
       <c r="F15" s="36" t="s">
         <v>67</v>
@@ -1994,7 +1994,7 @@
       <c r="AO15" s="34"/>
     </row>
     <row r="16" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="69"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="56" t="s">
         <v>58</v>
       </c>
@@ -2039,12 +2039,12 @@
       <c r="AO16" s="6"/>
     </row>
     <row r="17" spans="1:41" s="38" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="69"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="23">
         <v>1</v>
       </c>
@@ -2094,12 +2094,12 @@
       <c r="AO17" s="34"/>
     </row>
     <row r="18" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="69"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="35"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -2139,7 +2139,7 @@
       <c r="AO18" s="34"/>
     </row>
     <row r="19" spans="1:41" s="38" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="69"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="34"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29" t="s">
@@ -2184,7 +2184,7 @@
       <c r="AO19" s="34"/>
     </row>
     <row r="20" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="69"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="56" t="s">
         <v>68</v>
       </c>
@@ -2229,12 +2229,12 @@
       <c r="AO20" s="6"/>
     </row>
     <row r="21" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="69"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="46"/>
       <c r="F21" s="41" t="s">
         <v>70</v>
@@ -2276,12 +2276,12 @@
       <c r="AO21" s="19"/>
     </row>
     <row r="22" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="69"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="28"/>
       <c r="G22" s="19"/>
@@ -2321,7 +2321,7 @@
       <c r="AO22" s="19"/>
     </row>
     <row r="23" spans="1:41" s="21" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="69"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="34"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
@@ -2376,7 +2376,7 @@
       <c r="AO23" s="19"/>
     </row>
     <row r="24" spans="1:41" s="21" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="69"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="34"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
@@ -2431,7 +2431,7 @@
       <c r="AO24" s="19"/>
     </row>
     <row r="25" spans="1:41" s="21" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A25" s="69"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="34"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
@@ -2486,7 +2486,7 @@
       <c r="AO25" s="19"/>
     </row>
     <row r="26" spans="1:41" s="21" customFormat="1" ht="46" x14ac:dyDescent="0.45">
-      <c r="A26" s="69"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="34"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
@@ -2541,7 +2541,7 @@
       <c r="AO26" s="19"/>
     </row>
     <row r="27" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="69"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="44"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -2584,12 +2584,12 @@
       <c r="AO27" s="19"/>
     </row>
     <row r="28" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="69"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="25"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -2629,12 +2629,12 @@
       <c r="AO28" s="19"/>
     </row>
     <row r="29" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="69"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="60"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="25"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -2674,7 +2674,7 @@
       <c r="AO29" s="19"/>
     </row>
     <row r="30" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="69"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="30"/>
       <c r="C30" s="43"/>
       <c r="D30" s="19" t="s">
@@ -2719,7 +2719,7 @@
       <c r="AO30" s="19"/>
     </row>
     <row r="31" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="69"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
@@ -2768,7 +2768,7 @@
       <c r="AO31" s="19"/>
     </row>
     <row r="32" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="69"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
@@ -2817,13 +2817,13 @@
       <c r="AO32" s="19"/>
     </row>
     <row r="33" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="69"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="30"/>
       <c r="C33" s="42"/>
       <c r="D33" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="20"/>
@@ -2862,13 +2862,13 @@
       <c r="AO33" s="19"/>
     </row>
     <row r="34" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="69"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="30"/>
       <c r="C34" s="42"/>
       <c r="D34" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
@@ -2907,7 +2907,7 @@
       <c r="AO34" s="19"/>
     </row>
     <row r="35" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="69"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="30"/>
       <c r="C35" s="42"/>
       <c r="D35" s="30"/>
@@ -2950,7 +2950,7 @@
       <c r="AO35" s="19"/>
     </row>
     <row r="36" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="69"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="30"/>
       <c r="C36" s="42"/>
       <c r="D36" s="30"/>
@@ -2993,12 +2993,12 @@
       <c r="AO36" s="19"/>
     </row>
     <row r="37" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="69"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="60"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="25"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
@@ -3038,7 +3038,7 @@
       <c r="AO37" s="19"/>
     </row>
     <row r="38" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="69"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="19" t="s">
@@ -3083,7 +3083,7 @@
       <c r="AO38" s="19"/>
     </row>
     <row r="39" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="69"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
@@ -3128,7 +3128,7 @@
       <c r="AO39" s="19"/>
     </row>
     <row r="40" spans="1:41" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="69"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="30" t="s">
@@ -3173,7 +3173,7 @@
       <c r="AO40" s="19"/>
     </row>
     <row r="41" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="69"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
@@ -3216,7 +3216,7 @@
       <c r="AO41" s="6"/>
     </row>
     <row r="42" spans="1:41" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="69"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
@@ -3259,7 +3259,7 @@
       <c r="AO42" s="14"/>
     </row>
     <row r="43" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="69"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="56" t="s">
         <v>85</v>
       </c>
@@ -3304,12 +3304,12 @@
       <c r="AO43" s="6"/>
     </row>
     <row r="44" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="69"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="49"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="24"/>
       <c r="F44" s="6"/>
       <c r="G44" s="12"/>
@@ -3349,7 +3349,7 @@
       <c r="AO44" s="6"/>
     </row>
     <row r="45" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="69"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="18"/>
       <c r="C45" s="40"/>
       <c r="D45" s="18"/>
@@ -3392,7 +3392,7 @@
       <c r="AO45" s="6"/>
     </row>
     <row r="46" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="69"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="18"/>
       <c r="C46" s="40"/>
       <c r="D46" s="18"/>
@@ -3435,12 +3435,12 @@
       <c r="AO46" s="6"/>
     </row>
     <row r="47" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="69"/>
-      <c r="B47" s="50" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="52"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="66"/>
       <c r="E47" s="24"/>
       <c r="F47" s="6"/>
       <c r="G47" s="12"/>
@@ -3480,7 +3480,7 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="69"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="18"/>
       <c r="C48" s="40"/>
       <c r="D48" s="18"/>
@@ -3523,7 +3523,7 @@
       <c r="AO48" s="6"/>
     </row>
     <row r="49" spans="1:41" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="69"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
@@ -3567,6 +3567,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:AN3"/>
+    <mergeCell ref="A2:AG2"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="A14:A49"/>
     <mergeCell ref="A6:A13"/>
@@ -3583,28 +3605,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:AN3"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
+++ b/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
@@ -3094,7 +3094,7 @@
   <dimension ref="A1:AU62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
+++ b/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2738,50 +2738,17 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2791,12 +2758,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2810,8 +2771,47 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3083,7 +3083,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3093,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="E35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK52" sqref="AK52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3104,8 +3104,8 @@
     <col min="4" max="4" width="30.58203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="5.08203125" style="10"/>
     <col min="6" max="6" width="22.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="5.08203125" style="32"/>
-    <col min="8" max="9" width="8.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.08203125" style="23"/>
+    <col min="8" max="9" width="8.75" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.08203125" style="10"/>
     <col min="11" max="11" width="6.08203125" style="10" customWidth="1"/>
     <col min="12" max="21" width="5.08203125" style="10"/>
@@ -3114,82 +3114,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="AJ1" s="33" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="AJ1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
     </row>
     <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.45">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="39" t="s">
@@ -3232,39 +3232,39 @@
       <c r="AL3" s="40"/>
       <c r="AM3" s="40"/>
       <c r="AN3" s="40"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
     </row>
-    <row r="4" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="42" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="19" t="s">
@@ -3379,17 +3379,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+    <row r="5" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="19">
         <v>43915</v>
       </c>
@@ -3502,16 +3502,16 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="6" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="41">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="28">
         <v>1</v>
       </c>
       <c r="F6" s="3"/>
@@ -3565,14 +3565,14 @@
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
     </row>
-    <row r="7" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="45"/>
+      <c r="B7" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="7" t="s">
         <v>70</v>
       </c>
@@ -3618,14 +3618,14 @@
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
     </row>
-    <row r="8" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="45"/>
+      <c r="B8" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="42"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="7" t="s">
         <v>61</v>
       </c>
@@ -3671,13 +3671,13 @@
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
     </row>
-    <row r="9" spans="1:47" s="30" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24" t="s">
+    <row r="9" spans="1:47" s="22" customFormat="1" ht="23" x14ac:dyDescent="0.45">
+      <c r="A9" s="45"/>
+      <c r="B9" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="20">
         <v>1</v>
       </c>
@@ -3734,13 +3734,13 @@
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
     </row>
-    <row r="10" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="45"/>
+      <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="18"/>
@@ -3785,13 +3785,13 @@
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
     </row>
-    <row r="11" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="45"/>
+      <c r="B11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="18"/>
@@ -3836,13 +3836,13 @@
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
     </row>
-    <row r="12" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="45"/>
+      <c r="B12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="18"/>
@@ -3887,14 +3887,14 @@
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
     </row>
-    <row r="13" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="23"/>
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="45"/>
+      <c r="B13" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="43"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="3" t="s">
         <v>82</v>
       </c>
@@ -3940,15 +3940,15 @@
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
     </row>
-    <row r="14" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="18"/>
@@ -3993,14 +3993,14 @@
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
     </row>
-    <row r="15" spans="1:47" s="29" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:47" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="45"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="43"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="11" t="s">
         <v>64</v>
       </c>
@@ -4046,13 +4046,13 @@
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
     </row>
-    <row r="16" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26" t="s">
+    <row r="16" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="45"/>
+      <c r="B16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="18"/>
@@ -4097,13 +4097,13 @@
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:47" s="29" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="23"/>
+    <row r="17" spans="1:47" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="45"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -4148,8 +4148,8 @@
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
     </row>
-    <row r="18" spans="1:47" s="29" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="23"/>
+    <row r="18" spans="1:47" s="21" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="45"/>
       <c r="B18" s="15"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17" t="s">
@@ -4211,13 +4211,13 @@
       <c r="AT18" s="15"/>
       <c r="AU18" s="3"/>
     </row>
-    <row r="19" spans="1:47" s="29" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="23"/>
+    <row r="19" spans="1:47" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="45"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -4262,8 +4262,8 @@
       <c r="AT19" s="15"/>
       <c r="AU19" s="3"/>
     </row>
-    <row r="20" spans="1:47" s="29" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="23"/>
+    <row r="20" spans="1:47" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="45"/>
       <c r="B20" s="15"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17" t="s">
@@ -4315,8 +4315,8 @@
       <c r="AT20" s="15"/>
       <c r="AU20" s="3"/>
     </row>
-    <row r="21" spans="1:47" s="29" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="23"/>
+    <row r="21" spans="1:47" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="45"/>
       <c r="B21" s="15"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -4364,13 +4364,13 @@
       <c r="AT21" s="15"/>
       <c r="AU21" s="3"/>
     </row>
-    <row r="22" spans="1:47" s="29" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="23"/>
+    <row r="22" spans="1:47" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="45"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -4415,8 +4415,8 @@
       <c r="AT22" s="15"/>
       <c r="AU22" s="3"/>
     </row>
-    <row r="23" spans="1:47" s="29" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="23"/>
+    <row r="23" spans="1:47" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="45"/>
       <c r="B23" s="15"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -4472,8 +4472,8 @@
       <c r="AT23" s="15"/>
       <c r="AU23" s="3"/>
     </row>
-    <row r="24" spans="1:47" s="29" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="23"/>
+    <row r="24" spans="1:47" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="45"/>
       <c r="B24" s="15"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -4521,8 +4521,8 @@
       <c r="AT24" s="15"/>
       <c r="AU24" s="3"/>
     </row>
-    <row r="25" spans="1:47" s="29" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="23"/>
+    <row r="25" spans="1:47" s="21" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="45"/>
       <c r="B25" s="15"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -4570,29 +4570,29 @@
       <c r="AT25" s="15"/>
       <c r="AU25" s="3"/>
     </row>
-    <row r="26" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="23"/>
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="45"/>
+      <c r="B26" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="42" t="s">
         <v>29</v>
       </c>
       <c r="K26" s="19" t="s">
@@ -4707,17 +4707,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="23"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+    <row r="27" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="45"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="19">
         <v>43915</v>
       </c>
@@ -4830,13 +4830,13 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="28" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="23"/>
-      <c r="B28" s="26" t="s">
+    <row r="28" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="45"/>
+      <c r="B28" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="18"/>
@@ -4881,14 +4881,14 @@
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
     </row>
-    <row r="29" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="23"/>
+    <row r="29" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="45"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="43"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="14" t="s">
         <v>67</v>
       </c>
@@ -4934,13 +4934,13 @@
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
     </row>
-    <row r="30" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="23"/>
+    <row r="30" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="45"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="5"/>
       <c r="F30" s="8"/>
       <c r="G30" s="5"/>
@@ -4985,8 +4985,8 @@
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
     </row>
-    <row r="31" spans="1:47" s="34" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="23"/>
+    <row r="31" spans="1:47" s="24" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="45"/>
       <c r="B31" s="15"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
@@ -5046,8 +5046,8 @@
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
     </row>
-    <row r="32" spans="1:47" s="34" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="23"/>
+    <row r="32" spans="1:47" s="24" customFormat="1" ht="57.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="45"/>
       <c r="B32" s="15"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
@@ -5107,8 +5107,8 @@
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
     </row>
-    <row r="33" spans="1:47" s="34" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A33" s="23"/>
+    <row r="33" spans="1:47" s="24" customFormat="1" ht="23" x14ac:dyDescent="0.45">
+      <c r="A33" s="45"/>
       <c r="B33" s="15"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
@@ -5168,8 +5168,8 @@
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
     </row>
-    <row r="34" spans="1:47" s="34" customFormat="1" ht="46" x14ac:dyDescent="0.45">
-      <c r="A34" s="23"/>
+    <row r="34" spans="1:47" s="24" customFormat="1" ht="46" x14ac:dyDescent="0.45">
+      <c r="A34" s="45"/>
       <c r="B34" s="15"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
@@ -5229,13 +5229,13 @@
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
     </row>
-    <row r="35" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="23"/>
+    <row r="35" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="45"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="44"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="20"/>
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
@@ -5280,8 +5280,8 @@
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
     </row>
-    <row r="36" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="23"/>
+    <row r="36" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="45"/>
       <c r="B36" s="15"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -5329,8 +5329,8 @@
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
     </row>
-    <row r="37" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="23"/>
+    <row r="37" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="45"/>
       <c r="B37" s="15"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
@@ -5380,29 +5380,29 @@
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
     </row>
-    <row r="38" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="23"/>
-      <c r="B38" s="21" t="s">
+    <row r="38" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="45"/>
+      <c r="B38" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="42" t="s">
         <v>29</v>
       </c>
       <c r="K38" s="19" t="s">
@@ -5517,17 +5517,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="23"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
+    <row r="39" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="45"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="19">
         <v>43915</v>
       </c>
@@ -5640,13 +5640,13 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="40" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="23"/>
-      <c r="B40" s="28" t="s">
+    <row r="40" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="45"/>
+      <c r="B40" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -5691,11 +5691,11 @@
       <c r="AT40" s="5"/>
       <c r="AU40" s="5"/>
     </row>
-    <row r="41" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="23"/>
+    <row r="41" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="45"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -5740,8 +5740,8 @@
       <c r="AT41" s="5"/>
       <c r="AU41" s="5"/>
     </row>
-    <row r="42" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="23"/>
+    <row r="42" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="45"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -5789,8 +5789,8 @@
       <c r="AT42" s="5"/>
       <c r="AU42" s="5"/>
     </row>
-    <row r="43" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="23"/>
+    <row r="43" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="45"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -5838,8 +5838,8 @@
       <c r="AT43" s="5"/>
       <c r="AU43" s="5"/>
     </row>
-    <row r="44" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="23"/>
+    <row r="44" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="45"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -5887,13 +5887,13 @@
       <c r="AT44" s="5"/>
       <c r="AU44" s="5"/>
     </row>
-    <row r="45" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="23"/>
+    <row r="45" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="45"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="45"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -5938,14 +5938,14 @@
       <c r="AT45" s="5"/>
       <c r="AU45" s="5"/>
     </row>
-    <row r="46" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="23"/>
+    <row r="46" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="45"/>
       <c r="B46" s="9"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="43"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
@@ -5989,14 +5989,14 @@
       <c r="AT46" s="5"/>
       <c r="AU46" s="5"/>
     </row>
-    <row r="47" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="23"/>
+    <row r="47" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="45"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="43"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="8"/>
       <c r="G47" s="5"/>
       <c r="H47" s="12" t="s">
@@ -6042,14 +6042,14 @@
       <c r="AT47" s="5"/>
       <c r="AU47" s="5"/>
     </row>
-    <row r="48" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="23"/>
+    <row r="48" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="45"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="43"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="8" t="s">
         <v>100</v>
       </c>
@@ -6097,14 +6097,14 @@
       <c r="AT48" s="5"/>
       <c r="AU48" s="5"/>
     </row>
-    <row r="49" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="23"/>
+    <row r="49" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="45"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="43"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="6"/>
@@ -6148,14 +6148,14 @@
       <c r="AT49" s="5"/>
       <c r="AU49" s="5"/>
     </row>
-    <row r="50" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="23"/>
+    <row r="50" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="45"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="43"/>
+      <c r="E50" s="30"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="6"/>
@@ -6199,8 +6199,8 @@
       <c r="AT50" s="5"/>
       <c r="AU50" s="5"/>
     </row>
-    <row r="51" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="23"/>
+    <row r="51" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="45"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9" t="s">
@@ -6250,8 +6250,8 @@
       <c r="AT51" s="5"/>
       <c r="AU51" s="5"/>
     </row>
-    <row r="52" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="23"/>
+    <row r="52" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="45"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
@@ -6291,7 +6291,7 @@
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="13"/>
-      <c r="AK52" s="5"/>
+      <c r="AK52" s="13"/>
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
       <c r="AN52" s="5"/>
@@ -6303,13 +6303,13 @@
       <c r="AT52" s="5"/>
       <c r="AU52" s="5"/>
     </row>
-    <row r="53" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="23"/>
+    <row r="53" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="45"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="45"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -6354,8 +6354,8 @@
       <c r="AT53" s="5"/>
       <c r="AU53" s="5"/>
     </row>
-    <row r="54" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="23"/>
+    <row r="54" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="45"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="5" t="s">
@@ -6405,8 +6405,8 @@
       <c r="AT54" s="5"/>
       <c r="AU54" s="5"/>
     </row>
-    <row r="55" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="23"/>
+    <row r="55" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="45"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9" t="s">
@@ -6456,8 +6456,8 @@
       <c r="AT55" s="5"/>
       <c r="AU55" s="5"/>
     </row>
-    <row r="56" spans="1:47" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A56" s="23"/>
+    <row r="56" spans="1:47" s="24" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="45"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -6505,29 +6505,29 @@
       <c r="AT56" s="5"/>
       <c r="AU56" s="5"/>
     </row>
-    <row r="57" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="23"/>
-      <c r="B57" s="21" t="s">
+    <row r="57" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="45"/>
+      <c r="B57" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21" t="s">
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="H57" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I57" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J57" s="21" t="s">
+      <c r="J57" s="42" t="s">
         <v>29</v>
       </c>
       <c r="K57" s="19" t="s">
@@ -6642,17 +6642,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="23"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
+    <row r="58" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="45"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
       <c r="K58" s="19">
         <v>43915</v>
       </c>
@@ -6765,13 +6765,13 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="59" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="23"/>
-      <c r="B59" s="26" t="s">
+    <row r="59" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="45"/>
+      <c r="B59" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="18"/>
@@ -6816,13 +6816,13 @@
       <c r="AT59" s="5"/>
       <c r="AU59" s="5"/>
     </row>
-    <row r="60" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="23"/>
+    <row r="60" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="45"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="44"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="18"/>
@@ -6867,8 +6867,8 @@
       <c r="AT60" s="5"/>
       <c r="AU60" s="5"/>
     </row>
-    <row r="61" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="23"/>
+    <row r="61" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="45"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -6916,8 +6916,8 @@
       <c r="AT61" s="5"/>
       <c r="AU61" s="5"/>
     </row>
-    <row r="62" spans="1:47" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="23"/>
+    <row r="62" spans="1:47" s="22" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="45"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -6967,6 +6967,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A14:A62"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:AN3"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B40:D40"/>
@@ -6982,51 +7026,7 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:AN3"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A14:A62"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
+++ b/의상_매칭_서비스/WBS_파이널프로젝트.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Project\의상_매칭_서비스\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="10220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <author>Jisoo Lim</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1449,7 +1454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0">
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1681,7 +1686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2047,7 +2052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="D23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2073,7 +2078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0">
+    <comment ref="D35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2343,7 +2348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0">
+    <comment ref="D36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2575,7 +2580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0">
+    <comment ref="D37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3178,7 +3183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0">
+    <comment ref="D38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3659,7 +3664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0">
+    <comment ref="D41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4120,7 +4125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0">
+    <comment ref="D48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4477,7 +4482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0">
+    <comment ref="D61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5502,7 +5507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0">
+    <comment ref="D62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5986,7 +5991,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="217">
   <si>
     <t>시작 날짜</t>
   </si>
@@ -6269,10 +6274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>020_구글_이미지_크롤링_코드.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이혜준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6354,11 +6355,6 @@
   </si>
   <si>
     <t>002_파일전처리_공백.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003_데이터전처리_병합.jpynb
-004_데이터전처리_병합_수정.jpynb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6578,31 +6574,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>019_크롤링_코드_종합.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이미지 얼굴 인식 및 얼굴 제거 (openCV 활용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_데이터증식_특성추출.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_heatmap_시도.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_중간층_활정화_시각화.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI 학습: shape 분류모델 top, bottom 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>style_model_1_90,63.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6670,167 +6646,214 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>017_배경제거_코드.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종_의상_추천.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008_style_분류모델.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007_shape_분류모델.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>016_카카오API활용_이미지_분리.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>025_이미지_얼굴인식_및_자르기.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>024_style_pattern_shape_동시예측_최종.jpynb</t>
+    <t>006_texture_분류모델.jpynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-28-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-18-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hisfit, musinsa, wusinsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-14-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-16-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-07-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-08-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-13-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-25-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-22-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-15-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-17-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-08-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-11-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003_데이터전처리_병합.jpynb
+004_데이터전처리_병합_수정.jpynb
+005_데이터전처리_추가.jpynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008_style_분류모델_미완.jpynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007_shape_분류모델._미완jpynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014_특징추출기_실패.ipynb</t>
+  </si>
+  <si>
+    <t>009_이미지_새폴더_재분류_(category_name).jpynb
+010_이미지_새폴더_재분류_(texture).jpynb
+011_이미지_분류모델_(pattern).ipynb
+012_이미지_분류모델_(pattern)_수정.ipynb
+013_이미지_분류모델_(style).ipynb
+015_모델사용_예측코드.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>017_이미지_배경제거_코드.ipynb</t>
+  </si>
+  <si>
+    <t>020_구글_이미지_크롤링_코드.ipynb</t>
+  </si>
+  <si>
+    <t>021_style_pattarn_동시예측.ipynb
+022_style_pattarn_shape_동시예측_최종.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>019_크롤링 코드 종합.ipynb
+023_추천용_데이터_크롤링.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>024_이미지_얼굴인식_및_자르기.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>016_카카오API활용_이미지_분리.ipynb
+025_상의_인식_및_자르기_수정.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>027_사전_훈련된_컨브넷_사용_(shape).ipynb
+clothes_category_83%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028_사전_훈련된_컨브넷_사용_(하의).ipynb
+029_사전_훈련된_컨브넷_사용_(상의).ipynb
+lower_9990.h5
+upper_9978.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>030_사전_훈련된_컨브넷_사용_(pattern).ipynb
+031_카테고리_학습_(pattern).ipynb
+pattern_9985.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032_사전_훈련된_컨브넷_사용_(style).ipynb
+033_카테고리_학습_(style).ipynb
+034_데이터증식_이용_특성추출_(style).h5
+035_미세조정_(style).h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>036_heatmap_시도.ipynb</t>
+  </si>
+  <si>
+    <t>037_중간층_활성화_시각화.ipynb</t>
+  </si>
+  <si>
+    <t>039_추천_매트릭스_생성용_이미지_분류_(wusinsa).ipynb
+040_추천_매트릭스_생성용_이미지_분류_(musinsa).ipynb
+041_추천_매트릭스_생성용_이미지_분류_(hisfit).ipynb
+042_추천_매트릭스_생성용_이미지_분류_(crawling_top)_최종.ipynb
+043_추천_매트릭스_생성용_이미지_분류_(crawling_bottom)_최종.ipynb
+044_추천_매트릭스_생성용_이미지_분류_(codibook)_최종.ipynb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>012_이미지_분류모델_(pattern)_수정.jpynb
+018_상하의_pattern_예측값_파일로_저장.ipynb
+026_이미지_분류모델_(pattern)_정확도77.ipynb
+045_분류모델_정확도_비교_(pattern).ipynb
 pattern_7class_정확도77.h5
 pattern_no_camo_정확도76.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>009_이미지_새폴더_재분류_(category_name).jpynb
-010_이미지_새폴더_재분류_(texture).jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006_texture_분류모델.jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99_사전_훈련된_컨브넷_사용(하의).jpynb
-99_사전_훈련된_컨브넷_사용(상의).jpynb
-lower_9990.h5
-upper_9978.h5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전_훈련된_컨브넷_사용.jpynb
-clothes_category_83%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-28-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-18-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hisfit, musinsa, wusinsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-14-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-16-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-07-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-08-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-13-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전_훈련된_컨브넷_사용(패턴).jpynb
-pattern_9985.h5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전_훈련된_컨브넷_사용(스타일).jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매트릭스 뽑아내는 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-25-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천_매트릭스_생성용_이미지_분류_(crawling_bottom)_최종.jpynb
-추천_매트릭스_생성용_이미지_분류_(crawling_top).jpynb
-추천_매트릭스_생성용_이미지_분류_(hisfit).jpynb
-추천_매트릭스_생성용_이미지_분류_(wusinsa).jpynb
-추천_매트릭스_생성용_이미지_분류_(musinsa).jpynb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-22-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-15-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-17-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-08-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-11-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9일</t>
+    <t>999_의상_추천_최종.ipynb</t>
+  </si>
+  <si>
+    <t>047_좌표로_box_image_추출.ipynb</t>
+  </si>
+  <si>
+    <t>048_이미지_분류모델_(style)_최종.ipynb
+style_model_1_90,63.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>046_매트릭스_뽑아내는_코드.ipynb
+matrix_except_crawling.csv
+ca_table.csv
+fe_table.csv
+fo_table.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6956,23 +6979,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <bgColor indexed="51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6981,15 +6993,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="lightUp">
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -7099,240 +7104,168 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7344,6 +7277,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7604,7 +7540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7614,1590 +7550,1591 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="E50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="9" customWidth="1"/>
-    <col min="2" max="3" width="5.08203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.58203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="5.08203125" style="9"/>
-    <col min="6" max="6" width="40.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="19" customWidth="1"/>
-    <col min="8" max="9" width="8.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.08203125" style="19"/>
-    <col min="11" max="11" width="6.08203125" style="9" customWidth="1"/>
-    <col min="12" max="17" width="5.08203125" style="9" customWidth="1"/>
-    <col min="18" max="21" width="5.08203125" style="9"/>
-    <col min="22" max="40" width="5.08203125" style="9" customWidth="1"/>
-    <col min="41" max="16384" width="5.08203125" style="9"/>
+    <col min="1" max="1" width="10.625" style="31" customWidth="1"/>
+    <col min="2" max="3" width="5.125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="30"/>
+    <col min="6" max="6" width="42.875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="30" customWidth="1"/>
+    <col min="8" max="9" width="8.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" style="30"/>
+    <col min="11" max="11" width="6.125" style="31" customWidth="1"/>
+    <col min="12" max="17" width="5.125" style="31" customWidth="1"/>
+    <col min="18" max="21" width="5.125" style="31"/>
+    <col min="22" max="40" width="5.125" style="31" customWidth="1"/>
+    <col min="41" max="16384" width="5.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="AJ1" s="39" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="AJ1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
     </row>
-    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.45">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:47" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.45">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+    </row>
+    <row r="4" spans="1:47" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI4" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO4" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP4" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR4" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS4" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT4" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU4" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="41">
+        <v>43915</v>
+      </c>
+      <c r="L5" s="41">
+        <v>43916</v>
+      </c>
+      <c r="M5" s="41">
+        <v>43917</v>
+      </c>
+      <c r="N5" s="41">
+        <v>43918</v>
+      </c>
+      <c r="O5" s="42">
+        <v>43919</v>
+      </c>
+      <c r="P5" s="42">
+        <v>43920</v>
+      </c>
+      <c r="Q5" s="42">
+        <v>43921</v>
+      </c>
+      <c r="R5" s="42">
+        <v>43922</v>
+      </c>
+      <c r="S5" s="42">
+        <v>43923</v>
+      </c>
+      <c r="T5" s="42">
+        <v>43924</v>
+      </c>
+      <c r="U5" s="41">
+        <v>43925</v>
+      </c>
+      <c r="V5" s="42">
+        <v>43926</v>
+      </c>
+      <c r="W5" s="41">
+        <v>43927</v>
+      </c>
+      <c r="X5" s="41">
+        <v>43928</v>
+      </c>
+      <c r="Y5" s="41">
+        <v>43929</v>
+      </c>
+      <c r="Z5" s="41">
+        <v>43930</v>
+      </c>
+      <c r="AA5" s="41">
+        <v>43931</v>
+      </c>
+      <c r="AB5" s="41">
+        <v>43932</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>43933</v>
+      </c>
+      <c r="AD5" s="41">
+        <v>43934</v>
+      </c>
+      <c r="AE5" s="41">
+        <v>43935</v>
+      </c>
+      <c r="AF5" s="42">
+        <v>43936</v>
+      </c>
+      <c r="AG5" s="41">
+        <v>43937</v>
+      </c>
+      <c r="AH5" s="41">
+        <v>43938</v>
+      </c>
+      <c r="AI5" s="41">
+        <v>43939</v>
+      </c>
+      <c r="AJ5" s="42">
+        <v>43940</v>
+      </c>
+      <c r="AK5" s="41">
+        <v>43941</v>
+      </c>
+      <c r="AL5" s="41">
+        <v>43942</v>
+      </c>
+      <c r="AM5" s="41">
+        <v>43943</v>
+      </c>
+      <c r="AN5" s="41">
+        <v>43944</v>
+      </c>
+      <c r="AO5" s="41">
+        <v>43945</v>
+      </c>
+      <c r="AP5" s="41">
+        <v>43946</v>
+      </c>
+      <c r="AQ5" s="42">
+        <v>43947</v>
+      </c>
+      <c r="AR5" s="41">
+        <v>43948</v>
+      </c>
+      <c r="AS5" s="41">
+        <v>43949</v>
+      </c>
+      <c r="AT5" s="41">
+        <v>43950</v>
+      </c>
+      <c r="AU5" s="41">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="46"/>
+      <c r="AU6" s="46"/>
+    </row>
+    <row r="7" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+      <c r="B7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+    </row>
+    <row r="8" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48">
+        <v>1</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="46"/>
+    </row>
+    <row r="9" spans="1:47" s="44" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+    </row>
+    <row r="10" spans="1:47" s="44" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="46"/>
+    </row>
+    <row r="11" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46"/>
+      <c r="AR11" s="46"/>
+      <c r="AS11" s="46"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="46"/>
+    </row>
+    <row r="12" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="45"/>
+    </row>
+    <row r="13" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46"/>
+    </row>
+    <row r="14" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
+      <c r="AQ14" s="46"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="46"/>
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="46"/>
+    </row>
+    <row r="15" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
+      <c r="AT15" s="46"/>
+      <c r="AU15" s="46"/>
+    </row>
+    <row r="16" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="46"/>
+    </row>
+    <row r="17" spans="1:47" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="21"/>
+      <c r="G17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="46"/>
     </row>
-    <row r="4" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="33" t="s">
+    <row r="18" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="46"/>
+    </row>
+    <row r="19" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="28">
         <v>1</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN4" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP4" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR4" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS4" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT4" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU4" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="F19" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="46"/>
     </row>
-    <row r="5" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="15">
-        <v>43915</v>
-      </c>
-      <c r="L5" s="15">
-        <v>43916</v>
-      </c>
-      <c r="M5" s="15">
-        <v>43917</v>
-      </c>
-      <c r="N5" s="15">
-        <v>43918</v>
-      </c>
-      <c r="O5" s="65">
-        <v>43919</v>
-      </c>
-      <c r="P5" s="65">
-        <v>43920</v>
-      </c>
-      <c r="Q5" s="65">
-        <v>43921</v>
-      </c>
-      <c r="R5" s="65">
-        <v>43922</v>
-      </c>
-      <c r="S5" s="65">
-        <v>43923</v>
-      </c>
-      <c r="T5" s="65">
-        <v>43924</v>
-      </c>
-      <c r="U5" s="15">
-        <v>43925</v>
-      </c>
-      <c r="V5" s="65">
-        <v>43926</v>
-      </c>
-      <c r="W5" s="15">
-        <v>43927</v>
-      </c>
-      <c r="X5" s="15">
-        <v>43928</v>
-      </c>
-      <c r="Y5" s="15">
-        <v>43929</v>
-      </c>
-      <c r="Z5" s="15">
-        <v>43930</v>
-      </c>
-      <c r="AA5" s="15">
-        <v>43931</v>
-      </c>
-      <c r="AB5" s="15">
-        <v>43932</v>
-      </c>
-      <c r="AC5" s="65">
-        <v>43933</v>
-      </c>
-      <c r="AD5" s="15">
-        <v>43934</v>
-      </c>
-      <c r="AE5" s="15">
-        <v>43935</v>
-      </c>
-      <c r="AF5" s="65">
-        <v>43936</v>
-      </c>
-      <c r="AG5" s="15">
-        <v>43937</v>
-      </c>
-      <c r="AH5" s="15">
-        <v>43938</v>
-      </c>
-      <c r="AI5" s="15">
-        <v>43939</v>
-      </c>
-      <c r="AJ5" s="65">
-        <v>43940</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>43941</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>43942</v>
-      </c>
-      <c r="AM5" s="15">
-        <v>43943</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>43944</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>43945</v>
-      </c>
-      <c r="AP5" s="15">
-        <v>43946</v>
-      </c>
-      <c r="AQ5" s="65">
-        <v>43947</v>
-      </c>
-      <c r="AR5" s="15">
-        <v>43948</v>
-      </c>
-      <c r="AS5" s="15">
-        <v>43949</v>
-      </c>
-      <c r="AT5" s="15">
-        <v>43950</v>
-      </c>
-      <c r="AU5" s="15">
-        <v>43951</v>
-      </c>
+    <row r="20" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="50"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="46"/>
     </row>
-    <row r="6" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="G6" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
+    <row r="21" spans="1:47" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="28">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="46"/>
     </row>
-    <row r="7" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="24">
+    <row r="22" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="46"/>
+    </row>
+    <row r="23" spans="1:47" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="28">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F23" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="59" t="s">
+      <c r="H23" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="46"/>
+    </row>
+    <row r="24" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="28">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
+      <c r="J24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="46"/>
     </row>
-    <row r="8" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="36"/>
-      <c r="B8" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="24">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="3"/>
+    <row r="25" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="46"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="46"/>
+      <c r="AO25" s="46"/>
+      <c r="AP25" s="46"/>
+      <c r="AQ25" s="46"/>
+      <c r="AR25" s="46"/>
+      <c r="AS25" s="46"/>
+      <c r="AT25" s="46"/>
+      <c r="AU25" s="46"/>
     </row>
-    <row r="9" spans="1:47" s="18" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-    </row>
-    <row r="10" spans="1:47" s="18" customFormat="1" ht="69" x14ac:dyDescent="0.45">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-    </row>
-    <row r="11" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="3"/>
-    </row>
-    <row r="12" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="2"/>
-      <c r="AU12" s="2"/>
-    </row>
-    <row r="13" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-    </row>
-    <row r="14" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="57"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-    </row>
-    <row r="15" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="57"/>
-      <c r="B15" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-    </row>
-    <row r="16" spans="1:47" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="57"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-    </row>
-    <row r="17" spans="1:47" s="17" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A17" s="57"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+    <row r="26" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="16">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="3"/>
-    </row>
-    <row r="18" spans="1:47" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="57"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="3"/>
-    </row>
-    <row r="19" spans="1:47" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="27"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="3"/>
-    </row>
-    <row r="20" spans="1:47" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="57"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="16">
-        <v>1</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="3"/>
-    </row>
-    <row r="21" spans="1:47" s="17" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A21" s="57"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="27"/>
-      <c r="AQ21" s="27"/>
-      <c r="AR21" s="27"/>
-      <c r="AS21" s="27"/>
-      <c r="AT21" s="27"/>
-      <c r="AU21" s="3"/>
-    </row>
-    <row r="22" spans="1:47" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="57"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="3"/>
-    </row>
-    <row r="23" spans="1:47" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="72">
-        <v>1</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="3"/>
-    </row>
-    <row r="24" spans="1:47" s="17" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="57"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="72">
-        <v>1</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="11"/>
-      <c r="AT24" s="11"/>
-      <c r="AU24" s="3"/>
-    </row>
-    <row r="25" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="57"/>
-      <c r="B25" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-    </row>
-    <row r="26" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="46"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -9227,45 +9164,45 @@
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="46"/>
+      <c r="AS26" s="46"/>
+      <c r="AT26" s="46"/>
+      <c r="AU26" s="46"/>
     </row>
-    <row r="27" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="57"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+    <row r="27" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="28">
         <v>1</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="46" t="s">
+      <c r="F27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="75" t="s">
+      <c r="I27" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="46" t="s">
-        <v>142</v>
+      <c r="J27" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="10"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -9290,47 +9227,47 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
+      <c r="AN27" s="46"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="46"/>
+      <c r="AR27" s="46"/>
+      <c r="AS27" s="46"/>
+      <c r="AT27" s="46"/>
+      <c r="AU27" s="46"/>
     </row>
-    <row r="28" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="57"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+    <row r="28" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="28">
         <v>1</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="46" t="s">
+      <c r="F28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="75" t="s">
+      <c r="H28" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="46" t="s">
-        <v>142</v>
+      <c r="J28" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -9353,39 +9290,39 @@
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AR28" s="46"/>
+      <c r="AS28" s="46"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
     </row>
-    <row r="29" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="57"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
+    <row r="29" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="28">
         <v>1</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="46" t="s">
+      <c r="F29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="46" t="s">
-        <v>142</v>
+      <c r="J29" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -9394,9 +9331,9 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
@@ -9416,39 +9353,39 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
+      <c r="AN29" s="46"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="46"/>
+      <c r="AQ29" s="46"/>
+      <c r="AR29" s="46"/>
+      <c r="AS29" s="46"/>
+      <c r="AT29" s="46"/>
+      <c r="AU29" s="46"/>
     </row>
-    <row r="30" spans="1:47" s="20" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A30" s="57"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+    <row r="30" spans="1:47" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="28">
         <v>1</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="46" t="s">
+      <c r="F30" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="75" t="s">
+      <c r="H30" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="46" t="s">
-        <v>142</v>
+      <c r="J30" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -9458,11 +9395,11 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
@@ -9479,28 +9416,28 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
       <c r="AM30" s="5"/>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="3"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
+      <c r="AN30" s="46"/>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="46"/>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
+      <c r="AT30" s="46"/>
+      <c r="AU30" s="46"/>
     </row>
-    <row r="31" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="57"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="46"/>
+    <row r="31" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -9530,39 +9467,39 @@
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
-      <c r="AR31" s="3"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
-      <c r="AU31" s="3"/>
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="46"/>
+      <c r="AQ31" s="46"/>
+      <c r="AR31" s="46"/>
+      <c r="AS31" s="46"/>
+      <c r="AT31" s="46"/>
+      <c r="AU31" s="46"/>
     </row>
-    <row r="32" spans="1:47" s="20" customFormat="1" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="57"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="16">
+    <row r="32" spans="1:47" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="28">
         <v>1</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="F32" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="J32" s="46" t="s">
-        <v>145</v>
+      <c r="G32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -9576,10 +9513,10 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="30"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
@@ -9593,561 +9530,563 @@
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="3"/>
-      <c r="AP32" s="3"/>
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="3"/>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
-      <c r="AU32" s="3"/>
+      <c r="AN32" s="46"/>
+      <c r="AO32" s="46"/>
+      <c r="AP32" s="46"/>
+      <c r="AQ32" s="46"/>
+      <c r="AR32" s="46"/>
+      <c r="AS32" s="46"/>
+      <c r="AT32" s="46"/>
+      <c r="AU32" s="46"/>
     </row>
-    <row r="33" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="57"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="35" t="s">
+    <row r="33" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="46"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="46"/>
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="46"/>
+      <c r="AT33" s="46"/>
+      <c r="AU33" s="46"/>
+    </row>
+    <row r="34" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="28">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="46"/>
+      <c r="AO34" s="46"/>
+      <c r="AP34" s="46"/>
+      <c r="AQ34" s="46"/>
+      <c r="AR34" s="46"/>
+      <c r="AS34" s="46"/>
+      <c r="AT34" s="46"/>
+      <c r="AU34" s="46"/>
+    </row>
+    <row r="35" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="28">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="46"/>
+      <c r="AO35" s="46"/>
+      <c r="AP35" s="46"/>
+      <c r="AQ35" s="46"/>
+      <c r="AR35" s="46"/>
+      <c r="AS35" s="46"/>
+      <c r="AT35" s="46"/>
+      <c r="AU35" s="46"/>
+    </row>
+    <row r="36" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="50"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="28">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
+      <c r="AQ36" s="46"/>
+      <c r="AR36" s="46"/>
+      <c r="AS36" s="46"/>
+      <c r="AT36" s="46"/>
+      <c r="AU36" s="46"/>
+    </row>
+    <row r="37" spans="1:47" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="50"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="28">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="46"/>
+      <c r="AO37" s="46"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
+      <c r="AR37" s="46"/>
+      <c r="AS37" s="46"/>
+      <c r="AT37" s="46"/>
+      <c r="AU37" s="46"/>
+    </row>
+    <row r="38" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="30"/>
-      <c r="AJ33" s="30"/>
-      <c r="AK33" s="30"/>
-      <c r="AL33" s="30"/>
-      <c r="AM33" s="30"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
+      <c r="E38" s="28">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="46"/>
+      <c r="AO38" s="46"/>
+      <c r="AP38" s="46"/>
+      <c r="AQ38" s="46"/>
+      <c r="AR38" s="46"/>
+      <c r="AS38" s="46"/>
+      <c r="AT38" s="46"/>
+      <c r="AU38" s="46"/>
     </row>
-    <row r="34" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="57"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="16">
-        <v>1</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="64" t="s">
+    <row r="39" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="46"/>
+      <c r="AO39" s="46"/>
+      <c r="AP39" s="46"/>
+      <c r="AQ39" s="46"/>
+      <c r="AR39" s="46"/>
+      <c r="AS39" s="46"/>
+      <c r="AT39" s="46"/>
+      <c r="AU39" s="46"/>
+    </row>
+    <row r="40" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="46"/>
+      <c r="AO40" s="46"/>
+      <c r="AP40" s="46"/>
+      <c r="AQ40" s="46"/>
+      <c r="AR40" s="46"/>
+      <c r="AS40" s="46"/>
+      <c r="AT40" s="46"/>
+      <c r="AU40" s="46"/>
+    </row>
+    <row r="41" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J34" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="30"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
+      <c r="H41" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="51"/>
+      <c r="AN41" s="51"/>
+      <c r="AO41" s="51"/>
+      <c r="AP41" s="51"/>
+      <c r="AQ41" s="51"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
+      <c r="AT41" s="51"/>
+      <c r="AU41" s="46"/>
     </row>
-    <row r="35" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="57"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="16">
-        <v>1</v>
-      </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="H35" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J35" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="30"/>
-      <c r="AI35" s="30"/>
-      <c r="AJ35" s="30"/>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="30"/>
-      <c r="AM35" s="30"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-    </row>
-    <row r="36" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="57"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="16">
-        <v>1</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H36" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J36" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="30"/>
-      <c r="AI36" s="30"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="30"/>
-      <c r="AM36" s="30"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="3"/>
-      <c r="AR36" s="3"/>
-      <c r="AS36" s="3"/>
-      <c r="AT36" s="3"/>
-      <c r="AU36" s="3"/>
-    </row>
-    <row r="37" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="57"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="16">
-        <v>1</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="H37" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J37" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="30"/>
-      <c r="AI37" s="30"/>
-      <c r="AJ37" s="30"/>
-      <c r="AK37" s="30"/>
-      <c r="AL37" s="30"/>
-      <c r="AM37" s="30"/>
-      <c r="AN37" s="3"/>
-      <c r="AO37" s="3"/>
-      <c r="AP37" s="3"/>
-      <c r="AQ37" s="3"/>
-      <c r="AR37" s="3"/>
-      <c r="AS37" s="3"/>
-      <c r="AT37" s="3"/>
-      <c r="AU37" s="3"/>
-    </row>
-    <row r="38" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="57"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="16">
-        <v>1</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J38" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="30"/>
-      <c r="AL38" s="30"/>
-      <c r="AM38" s="30"/>
-      <c r="AN38" s="3"/>
-      <c r="AO38" s="3"/>
-      <c r="AP38" s="3"/>
-      <c r="AQ38" s="3"/>
-      <c r="AR38" s="3"/>
-      <c r="AS38" s="3"/>
-      <c r="AT38" s="3"/>
-      <c r="AU38" s="3"/>
-    </row>
-    <row r="39" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="57"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="H39" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J39" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="30"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="30"/>
-      <c r="AK39" s="30"/>
-      <c r="AL39" s="30"/>
-      <c r="AM39" s="30"/>
-      <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
-      <c r="AP39" s="3"/>
-      <c r="AQ39" s="3"/>
-      <c r="AR39" s="3"/>
-      <c r="AS39" s="3"/>
-      <c r="AT39" s="3"/>
-      <c r="AU39" s="3"/>
-    </row>
-    <row r="40" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="57"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="30"/>
-      <c r="AH40" s="30"/>
-      <c r="AI40" s="30"/>
-      <c r="AJ40" s="30"/>
-      <c r="AK40" s="30"/>
-      <c r="AL40" s="30"/>
-      <c r="AM40" s="30"/>
-      <c r="AN40" s="3"/>
-      <c r="AO40" s="3"/>
-      <c r="AP40" s="3"/>
-      <c r="AQ40" s="3"/>
-      <c r="AR40" s="3"/>
-      <c r="AS40" s="3"/>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-    </row>
-    <row r="41" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="57"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="H41" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="30"/>
-      <c r="AE41" s="30"/>
-      <c r="AF41" s="30"/>
-      <c r="AG41" s="30"/>
-      <c r="AH41" s="30"/>
-      <c r="AI41" s="30"/>
-      <c r="AJ41" s="30"/>
-      <c r="AK41" s="30"/>
-      <c r="AL41" s="10"/>
-      <c r="AM41" s="10"/>
-      <c r="AN41" s="10"/>
-      <c r="AO41" s="10"/>
-      <c r="AP41" s="10"/>
-      <c r="AQ41" s="10"/>
-      <c r="AR41" s="10"/>
-      <c r="AS41" s="10"/>
-      <c r="AT41" s="10"/>
-      <c r="AU41" s="3"/>
-    </row>
-    <row r="42" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="57"/>
-      <c r="B42" s="45" t="s">
+    <row r="42" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="5"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="46"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -10186,19 +10125,19 @@
       <c r="AT42" s="5"/>
       <c r="AU42" s="5"/>
     </row>
-    <row r="43" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="57"/>
+    <row r="43" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="5"/>
+      <c r="C43" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="46"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -10237,30 +10176,30 @@
       <c r="AT43" s="5"/>
       <c r="AU43" s="5"/>
     </row>
-    <row r="44" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="57"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="70">
+    <row r="44" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="28">
         <v>1</v>
       </c>
-      <c r="F44" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I44" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="J44" s="46" t="s">
-        <v>142</v>
+      <c r="F44" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -10274,12 +10213,12 @@
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="51"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
@@ -10300,30 +10239,30 @@
       <c r="AT44" s="5"/>
       <c r="AU44" s="5"/>
     </row>
-    <row r="45" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="57"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="70">
+    <row r="45" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="28">
         <v>1</v>
       </c>
-      <c r="F45" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I45" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>140</v>
+      <c r="F45" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -10337,12 +10276,12 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="51"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
@@ -10363,30 +10302,30 @@
       <c r="AT45" s="5"/>
       <c r="AU45" s="5"/>
     </row>
-    <row r="46" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="57"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="70">
+    <row r="46" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="28">
         <v>1</v>
       </c>
-      <c r="F46" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="46" t="s">
+      <c r="F46" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I46" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="J46" s="46" t="s">
-        <v>135</v>
+      <c r="G46" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -10400,12 +10339,12 @@
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="51"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="51"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
@@ -10426,144 +10365,144 @@
       <c r="AT46" s="5"/>
       <c r="AU46" s="5"/>
     </row>
-    <row r="47" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="57"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30"/>
-      <c r="AE47" s="30"/>
-      <c r="AF47" s="30"/>
-      <c r="AG47" s="30"/>
-      <c r="AH47" s="30"/>
-      <c r="AI47" s="30"/>
-      <c r="AJ47" s="30"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="30"/>
-      <c r="AM47" s="30"/>
-      <c r="AN47" s="30"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="30"/>
-      <c r="AQ47" s="30"/>
-      <c r="AR47" s="30"/>
-      <c r="AS47" s="30"/>
-      <c r="AT47" s="30"/>
-      <c r="AU47" s="30"/>
+    <row r="47" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+      <c r="AS47" s="5"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
     </row>
-    <row r="48" spans="1:47" s="20" customFormat="1" ht="46" x14ac:dyDescent="0.45">
-      <c r="A48" s="57"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="70">
+    <row r="48" spans="1:47" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="50"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="28">
         <v>1</v>
       </c>
-      <c r="F48" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G48" s="46" t="s">
+      <c r="F48" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H48" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="I48" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="J48" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="10"/>
-      <c r="AM48" s="10"/>
-      <c r="AN48" s="10"/>
-      <c r="AO48" s="10"/>
-      <c r="AP48" s="10"/>
-      <c r="AQ48" s="10"/>
-      <c r="AR48" s="10"/>
-      <c r="AS48" s="30"/>
-      <c r="AT48" s="30"/>
-      <c r="AU48" s="30"/>
+      <c r="G48" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
+      <c r="AP48" s="51"/>
+      <c r="AQ48" s="51"/>
+      <c r="AR48" s="51"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
     </row>
-    <row r="49" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="57"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" s="70">
+    <row r="49" spans="1:47" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="28">
         <v>1</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="H49" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="I49" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="J49" s="46" t="s">
-        <v>140</v>
+      <c r="F49" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -10580,608 +10519,608 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
-      <c r="Z49" s="30"/>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-      <c r="AN49" s="10"/>
-      <c r="AO49" s="10"/>
-      <c r="AP49" s="10"/>
-      <c r="AQ49" s="10"/>
-      <c r="AR49" s="10"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="51"/>
+      <c r="AD49" s="51"/>
+      <c r="AE49" s="51"/>
+      <c r="AF49" s="51"/>
+      <c r="AG49" s="51"/>
+      <c r="AH49" s="51"/>
+      <c r="AI49" s="51"/>
+      <c r="AJ49" s="51"/>
+      <c r="AK49" s="51"/>
+      <c r="AL49" s="51"/>
+      <c r="AM49" s="51"/>
+      <c r="AN49" s="51"/>
+      <c r="AO49" s="51"/>
+      <c r="AP49" s="51"/>
+      <c r="AQ49" s="51"/>
+      <c r="AR49" s="51"/>
       <c r="AS49" s="5"/>
       <c r="AT49" s="5"/>
       <c r="AU49" s="5"/>
     </row>
-    <row r="50" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="57"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="70">
+    <row r="50" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="28">
         <v>1</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G50" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="H50" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="I50" s="75" t="s">
+      <c r="F50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="51"/>
+      <c r="AC50" s="51"/>
+      <c r="AD50" s="51"/>
+      <c r="AE50" s="51"/>
+      <c r="AF50" s="51"/>
+      <c r="AG50" s="51"/>
+      <c r="AH50" s="51"/>
+      <c r="AI50" s="51"/>
+      <c r="AJ50" s="51"/>
+      <c r="AK50" s="51"/>
+      <c r="AL50" s="51"/>
+      <c r="AM50" s="51"/>
+      <c r="AN50" s="51"/>
+      <c r="AO50" s="51"/>
+      <c r="AP50" s="51"/>
+      <c r="AQ50" s="51"/>
+      <c r="AR50" s="51"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="5"/>
+    </row>
+    <row r="51" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="5"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="5"/>
+    </row>
+    <row r="52" spans="1:47" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="50"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="28">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="51"/>
+      <c r="AJ52" s="51"/>
+      <c r="AK52" s="51"/>
+      <c r="AL52" s="51"/>
+      <c r="AM52" s="51"/>
+      <c r="AN52" s="51"/>
+      <c r="AO52" s="51"/>
+      <c r="AP52" s="51"/>
+      <c r="AQ52" s="51"/>
+      <c r="AR52" s="51"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+    </row>
+    <row r="53" spans="1:47" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="A53" s="50"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="28">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="51"/>
+      <c r="AK53" s="51"/>
+      <c r="AL53" s="51"/>
+      <c r="AM53" s="51"/>
+      <c r="AN53" s="51"/>
+      <c r="AO53" s="51"/>
+      <c r="AP53" s="51"/>
+      <c r="AQ53" s="51"/>
+      <c r="AR53" s="51"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+    </row>
+    <row r="54" spans="1:47" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="50"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="28">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="51"/>
+      <c r="AG54" s="51"/>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="51"/>
+      <c r="AJ54" s="51"/>
+      <c r="AK54" s="51"/>
+      <c r="AL54" s="51"/>
+      <c r="AM54" s="51"/>
+      <c r="AN54" s="51"/>
+      <c r="AO54" s="51"/>
+      <c r="AP54" s="51"/>
+      <c r="AQ54" s="51"/>
+      <c r="AR54" s="51"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+    </row>
+    <row r="55" spans="1:47" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="A55" s="50"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="28">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="51"/>
+      <c r="AI55" s="51"/>
+      <c r="AJ55" s="51"/>
+      <c r="AK55" s="51"/>
+      <c r="AL55" s="51"/>
+      <c r="AM55" s="51"/>
+      <c r="AN55" s="51"/>
+      <c r="AO55" s="51"/>
+      <c r="AP55" s="51"/>
+      <c r="AQ55" s="51"/>
+      <c r="AR55" s="51"/>
+      <c r="AS55" s="5"/>
+      <c r="AT55" s="5"/>
+      <c r="AU55" s="5"/>
+    </row>
+    <row r="56" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="50"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="J50" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="30"/>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="10"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="10"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
-      <c r="AM50" s="10"/>
-      <c r="AN50" s="10"/>
-      <c r="AO50" s="10"/>
-      <c r="AP50" s="10"/>
-      <c r="AQ50" s="10"/>
-      <c r="AR50" s="10"/>
-      <c r="AS50" s="30"/>
-      <c r="AT50" s="30"/>
-      <c r="AU50" s="30"/>
+      <c r="J56" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="51"/>
+      <c r="AB56" s="51"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="51"/>
+      <c r="AJ56" s="51"/>
+      <c r="AK56" s="51"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="5"/>
+      <c r="AS56" s="5"/>
+      <c r="AT56" s="5"/>
+      <c r="AU56" s="5"/>
     </row>
-    <row r="51" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="57"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30"/>
-      <c r="AE51" s="30"/>
-      <c r="AF51" s="30"/>
-      <c r="AG51" s="30"/>
-      <c r="AH51" s="30"/>
-      <c r="AI51" s="30"/>
-      <c r="AJ51" s="30"/>
-      <c r="AK51" s="30"/>
-      <c r="AL51" s="30"/>
-      <c r="AM51" s="30"/>
-      <c r="AN51" s="30"/>
-      <c r="AO51" s="30"/>
-      <c r="AP51" s="30"/>
-      <c r="AQ51" s="30"/>
-      <c r="AR51" s="30"/>
-      <c r="AS51" s="30"/>
-      <c r="AT51" s="30"/>
-      <c r="AU51" s="30"/>
+    <row r="57" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="50"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="51"/>
+      <c r="AJ57" s="51"/>
+      <c r="AK57" s="51"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5"/>
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="5"/>
+      <c r="AR57" s="5"/>
+      <c r="AS57" s="5"/>
+      <c r="AT57" s="51"/>
+      <c r="AU57" s="5"/>
     </row>
-    <row r="52" spans="1:47" s="20" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A52" s="57"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" s="70">
+    <row r="58" spans="1:47" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="50"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="51"/>
+      <c r="AI58" s="51"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="5"/>
+      <c r="AS58" s="51"/>
+      <c r="AT58" s="51"/>
+      <c r="AU58" s="5"/>
+    </row>
+    <row r="59" spans="1:47" s="4" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="50"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="28">
         <v>1</v>
       </c>
-      <c r="F52" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="H52" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="I52" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="J52" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="30"/>
-      <c r="Z52" s="30"/>
-      <c r="AA52" s="30"/>
-      <c r="AB52" s="30"/>
-      <c r="AC52" s="30"/>
-      <c r="AD52" s="30"/>
-      <c r="AE52" s="30"/>
-      <c r="AF52" s="30"/>
-      <c r="AG52" s="6"/>
-      <c r="AH52" s="30"/>
-      <c r="AI52" s="10"/>
-      <c r="AJ52" s="10"/>
-      <c r="AK52" s="10"/>
-      <c r="AL52" s="10"/>
-      <c r="AM52" s="10"/>
-      <c r="AN52" s="10"/>
-      <c r="AO52" s="10"/>
-      <c r="AP52" s="10"/>
-      <c r="AQ52" s="10"/>
-      <c r="AR52" s="10"/>
-      <c r="AS52" s="30"/>
-      <c r="AT52" s="30"/>
-      <c r="AU52" s="30"/>
-    </row>
-    <row r="53" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="57"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="70">
-        <v>1</v>
-      </c>
-      <c r="F53" s="25" t="s">
+      <c r="F59" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G53" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="H53" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="I53" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="J53" s="46" t="s">
+      <c r="G59" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="30"/>
-      <c r="Y53" s="30"/>
-      <c r="Z53" s="30"/>
-      <c r="AA53" s="30"/>
-      <c r="AB53" s="30"/>
-      <c r="AC53" s="30"/>
-      <c r="AD53" s="30"/>
-      <c r="AE53" s="30"/>
-      <c r="AF53" s="30"/>
-      <c r="AG53" s="30"/>
-      <c r="AH53" s="10"/>
-      <c r="AI53" s="10"/>
-      <c r="AJ53" s="10"/>
-      <c r="AK53" s="10"/>
-      <c r="AL53" s="10"/>
-      <c r="AM53" s="10"/>
-      <c r="AN53" s="10"/>
-      <c r="AO53" s="10"/>
-      <c r="AP53" s="10"/>
-      <c r="AQ53" s="10"/>
-      <c r="AR53" s="10"/>
-      <c r="AS53" s="30"/>
-      <c r="AT53" s="30"/>
-      <c r="AU53" s="30"/>
-    </row>
-    <row r="54" spans="1:47" s="20" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A54" s="57"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" s="70">
-        <v>1</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="G54" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="H54" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="I54" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="J54" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
-      <c r="AD54" s="30"/>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="10"/>
-      <c r="AG54" s="10"/>
-      <c r="AH54" s="10"/>
-      <c r="AI54" s="10"/>
-      <c r="AJ54" s="10"/>
-      <c r="AK54" s="10"/>
-      <c r="AL54" s="10"/>
-      <c r="AM54" s="10"/>
-      <c r="AN54" s="10"/>
-      <c r="AO54" s="10"/>
-      <c r="AP54" s="10"/>
-      <c r="AQ54" s="10"/>
-      <c r="AR54" s="10"/>
-      <c r="AS54" s="30"/>
-      <c r="AT54" s="30"/>
-      <c r="AU54" s="30"/>
-    </row>
-    <row r="55" spans="1:47" s="20" customFormat="1" ht="46" x14ac:dyDescent="0.45">
-      <c r="A55" s="57"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="70">
-        <v>1</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="H55" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="I55" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="J55" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="30"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="10"/>
-      <c r="AG55" s="10"/>
-      <c r="AH55" s="10"/>
-      <c r="AI55" s="10"/>
-      <c r="AJ55" s="10"/>
-      <c r="AK55" s="10"/>
-      <c r="AL55" s="10"/>
-      <c r="AM55" s="10"/>
-      <c r="AN55" s="10"/>
-      <c r="AO55" s="10"/>
-      <c r="AP55" s="10"/>
-      <c r="AQ55" s="10"/>
-      <c r="AR55" s="10"/>
-      <c r="AS55" s="30"/>
-      <c r="AT55" s="30"/>
-      <c r="AU55" s="30"/>
-    </row>
-    <row r="56" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A56" s="57"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="H56" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="I56" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="J56" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="30"/>
-      <c r="Y56" s="30"/>
-      <c r="Z56" s="30"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="30"/>
-      <c r="AD56" s="30"/>
-      <c r="AE56" s="30"/>
-      <c r="AF56" s="30"/>
-      <c r="AG56" s="30"/>
-      <c r="AH56" s="30"/>
-      <c r="AI56" s="10"/>
-      <c r="AJ56" s="10"/>
-      <c r="AK56" s="10"/>
-      <c r="AL56" s="30"/>
-      <c r="AM56" s="30"/>
-      <c r="AN56" s="30"/>
-      <c r="AO56" s="30"/>
-      <c r="AP56" s="30"/>
-      <c r="AQ56" s="30"/>
-      <c r="AR56" s="30"/>
-      <c r="AS56" s="30"/>
-      <c r="AT56" s="30"/>
-      <c r="AU56" s="30"/>
-    </row>
-    <row r="57" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="57"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G57" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H57" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="I57" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="J57" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="30"/>
-      <c r="AE57" s="30"/>
-      <c r="AF57" s="30"/>
-      <c r="AG57" s="30"/>
-      <c r="AH57" s="30"/>
-      <c r="AI57" s="10"/>
-      <c r="AJ57" s="10"/>
-      <c r="AK57" s="10"/>
-      <c r="AL57" s="30"/>
-      <c r="AM57" s="30"/>
-      <c r="AN57" s="30"/>
-      <c r="AO57" s="30"/>
-      <c r="AP57" s="30"/>
-      <c r="AQ57" s="30"/>
-      <c r="AR57" s="30"/>
-      <c r="AS57" s="30"/>
-      <c r="AT57" s="10"/>
-      <c r="AU57" s="30"/>
-    </row>
-    <row r="58" spans="1:47" s="20" customFormat="1" ht="23" x14ac:dyDescent="0.45">
-      <c r="A58" s="57"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="H58" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="I58" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="J58" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="30"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="30"/>
-      <c r="AD58" s="30"/>
-      <c r="AE58" s="30"/>
-      <c r="AF58" s="30"/>
-      <c r="AG58" s="30"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="30"/>
-      <c r="AK58" s="30"/>
-      <c r="AL58" s="30"/>
-      <c r="AM58" s="30"/>
-      <c r="AN58" s="30"/>
-      <c r="AO58" s="30"/>
-      <c r="AP58" s="30"/>
-      <c r="AQ58" s="30"/>
-      <c r="AR58" s="30"/>
-      <c r="AS58" s="10"/>
-      <c r="AT58" s="10"/>
-      <c r="AU58" s="30"/>
-    </row>
-    <row r="59" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="57"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="70">
-        <v>1</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G59" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H59" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="I59" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="J59" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -11208,9 +11147,9 @@
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
-      <c r="AJ59" s="10"/>
-      <c r="AK59" s="10"/>
-      <c r="AL59" s="10"/>
+      <c r="AJ59" s="51"/>
+      <c r="AK59" s="51"/>
+      <c r="AL59" s="51"/>
       <c r="AM59" s="5"/>
       <c r="AN59" s="5"/>
       <c r="AO59" s="5"/>
@@ -11221,19 +11160,19 @@
       <c r="AT59" s="5"/>
       <c r="AU59" s="5"/>
     </row>
-    <row r="60" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="57"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="5"/>
+    <row r="60" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="50"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="46"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="7"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
@@ -11272,30 +11211,30 @@
       <c r="AT60" s="5"/>
       <c r="AU60" s="5"/>
     </row>
-    <row r="61" spans="1:47" s="20" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="57"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="E61" s="70">
+    <row r="61" spans="1:47" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="50"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="28">
         <v>1</v>
       </c>
-      <c r="F61" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="G61" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="H61" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="I61" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="J61" s="60" t="s">
-        <v>142</v>
+      <c r="F61" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -11325,449 +11264,449 @@
       <c r="AJ61" s="5"/>
       <c r="AK61" s="5"/>
       <c r="AL61" s="5"/>
-      <c r="AM61" s="10"/>
-      <c r="AN61" s="10"/>
-      <c r="AO61" s="10"/>
-      <c r="AP61" s="10"/>
-      <c r="AQ61" s="10"/>
-      <c r="AR61" s="10"/>
+      <c r="AM61" s="51"/>
+      <c r="AN61" s="51"/>
+      <c r="AO61" s="51"/>
+      <c r="AP61" s="51"/>
+      <c r="AQ61" s="51"/>
+      <c r="AR61" s="51"/>
       <c r="AS61" s="5"/>
       <c r="AT61" s="5"/>
       <c r="AU61" s="5"/>
     </row>
-    <row r="62" spans="1:47" s="20" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="57"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" s="70">
+    <row r="62" spans="1:47" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="50"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="28">
         <v>1</v>
       </c>
-      <c r="F62" s="74"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="30"/>
-      <c r="Y62" s="30"/>
-      <c r="Z62" s="30"/>
-      <c r="AA62" s="30"/>
-      <c r="AB62" s="30"/>
-      <c r="AC62" s="30"/>
-      <c r="AD62" s="30"/>
-      <c r="AE62" s="30"/>
-      <c r="AF62" s="30"/>
-      <c r="AG62" s="30"/>
-      <c r="AH62" s="30"/>
-      <c r="AI62" s="30"/>
-      <c r="AJ62" s="30"/>
-      <c r="AK62" s="30"/>
-      <c r="AL62" s="30"/>
-      <c r="AM62" s="10"/>
-      <c r="AN62" s="10"/>
-      <c r="AO62" s="10"/>
-      <c r="AP62" s="10"/>
-      <c r="AQ62" s="10"/>
-      <c r="AR62" s="10"/>
-      <c r="AS62" s="30"/>
-      <c r="AT62" s="30"/>
-      <c r="AU62" s="30"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="51"/>
+      <c r="AN62" s="51"/>
+      <c r="AO62" s="51"/>
+      <c r="AP62" s="51"/>
+      <c r="AQ62" s="51"/>
+      <c r="AR62" s="51"/>
+      <c r="AS62" s="5"/>
+      <c r="AT62" s="5"/>
+      <c r="AU62" s="5"/>
     </row>
-    <row r="63" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="57"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E63" s="70">
+    <row r="63" spans="1:47" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="50"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="28">
         <v>1</v>
       </c>
-      <c r="F63" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="G63" s="46">
+      <c r="F63" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63" s="7">
         <v>4</v>
       </c>
-      <c r="H63" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="I63" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="J63" s="54" t="s">
+      <c r="H63" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="5"/>
+      <c r="AP63" s="51"/>
+      <c r="AQ63" s="51"/>
+      <c r="AR63" s="51"/>
+      <c r="AS63" s="51"/>
+      <c r="AT63" s="5"/>
+      <c r="AU63" s="5"/>
+    </row>
+    <row r="64" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="50"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="5"/>
+      <c r="AO64" s="5"/>
+      <c r="AP64" s="5"/>
+      <c r="AQ64" s="5"/>
+      <c r="AR64" s="5"/>
+      <c r="AS64" s="5"/>
+      <c r="AT64" s="5"/>
+      <c r="AU64" s="5"/>
+    </row>
+    <row r="65" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="50"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="28">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="5"/>
+      <c r="AP65" s="5"/>
+      <c r="AQ65" s="5"/>
+      <c r="AR65" s="5"/>
+      <c r="AS65" s="51"/>
+      <c r="AT65" s="51"/>
+      <c r="AU65" s="5"/>
+    </row>
+    <row r="66" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="50"/>
+      <c r="B66" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="5"/>
+      <c r="AS66" s="5"/>
+      <c r="AT66" s="5"/>
+      <c r="AU66" s="5"/>
+    </row>
+    <row r="67" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="50"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="5"/>
+      <c r="AS67" s="5"/>
+      <c r="AT67" s="5"/>
+      <c r="AU67" s="5"/>
+    </row>
+    <row r="68" spans="1:47" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="50"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="7">
+        <v>3</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J68" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AD63" s="30"/>
-      <c r="AE63" s="30"/>
-      <c r="AF63" s="30"/>
-      <c r="AG63" s="30"/>
-      <c r="AH63" s="30"/>
-      <c r="AI63" s="30"/>
-      <c r="AJ63" s="30"/>
-      <c r="AK63" s="30"/>
-      <c r="AL63" s="30"/>
-      <c r="AM63" s="30"/>
-      <c r="AN63" s="30"/>
-      <c r="AO63" s="30"/>
-      <c r="AP63" s="10"/>
-      <c r="AQ63" s="10"/>
-      <c r="AR63" s="10"/>
-      <c r="AS63" s="10"/>
-      <c r="AT63" s="30"/>
-      <c r="AU63" s="30"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="5"/>
+      <c r="AO68" s="5"/>
+      <c r="AP68" s="5"/>
+      <c r="AQ68" s="51"/>
+      <c r="AR68" s="51"/>
+      <c r="AS68" s="51"/>
+      <c r="AT68" s="5"/>
+      <c r="AU68" s="5"/>
     </row>
-    <row r="64" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="57"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="48"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="30"/>
-      <c r="AA64" s="30"/>
-      <c r="AB64" s="30"/>
-      <c r="AC64" s="30"/>
-      <c r="AD64" s="30"/>
-      <c r="AE64" s="30"/>
-      <c r="AF64" s="30"/>
-      <c r="AG64" s="30"/>
-      <c r="AH64" s="30"/>
-      <c r="AI64" s="30"/>
-      <c r="AJ64" s="30"/>
-      <c r="AK64" s="30"/>
-      <c r="AL64" s="30"/>
-      <c r="AM64" s="30"/>
-      <c r="AN64" s="30"/>
-      <c r="AO64" s="30"/>
-      <c r="AP64" s="30"/>
-      <c r="AQ64" s="30"/>
-      <c r="AR64" s="30"/>
-      <c r="AS64" s="30"/>
-      <c r="AT64" s="30"/>
-      <c r="AU64" s="30"/>
-    </row>
-    <row r="65" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="57"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="70">
-        <v>1</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="G65" s="46"/>
-      <c r="H65" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="I65" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="J65" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="30"/>
-      <c r="Y65" s="30"/>
-      <c r="Z65" s="30"/>
-      <c r="AA65" s="30"/>
-      <c r="AB65" s="30"/>
-      <c r="AC65" s="30"/>
-      <c r="AD65" s="30"/>
-      <c r="AE65" s="30"/>
-      <c r="AF65" s="30"/>
-      <c r="AG65" s="30"/>
-      <c r="AH65" s="30"/>
-      <c r="AI65" s="30"/>
-      <c r="AJ65" s="30"/>
-      <c r="AK65" s="30"/>
-      <c r="AL65" s="30"/>
-      <c r="AM65" s="30"/>
-      <c r="AN65" s="30"/>
-      <c r="AO65" s="30"/>
-      <c r="AP65" s="30"/>
-      <c r="AQ65" s="30"/>
-      <c r="AR65" s="30"/>
-      <c r="AS65" s="10"/>
-      <c r="AT65" s="10"/>
-      <c r="AU65" s="30"/>
-    </row>
-    <row r="66" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="57"/>
-      <c r="B66" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="30"/>
-      <c r="Y66" s="30"/>
-      <c r="Z66" s="30"/>
-      <c r="AA66" s="30"/>
-      <c r="AB66" s="30"/>
-      <c r="AC66" s="30"/>
-      <c r="AD66" s="30"/>
-      <c r="AE66" s="30"/>
-      <c r="AF66" s="30"/>
-      <c r="AG66" s="30"/>
-      <c r="AH66" s="30"/>
-      <c r="AI66" s="30"/>
-      <c r="AJ66" s="30"/>
-      <c r="AK66" s="30"/>
-      <c r="AL66" s="30"/>
-      <c r="AM66" s="30"/>
-      <c r="AN66" s="30"/>
-      <c r="AO66" s="30"/>
-      <c r="AP66" s="30"/>
-      <c r="AQ66" s="30"/>
-      <c r="AR66" s="30"/>
-      <c r="AS66" s="30"/>
-      <c r="AT66" s="30"/>
-      <c r="AU66" s="30"/>
-    </row>
-    <row r="67" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A67" s="57"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67" s="48"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
-      <c r="X67" s="30"/>
-      <c r="Y67" s="30"/>
-      <c r="Z67" s="30"/>
-      <c r="AA67" s="30"/>
-      <c r="AB67" s="30"/>
-      <c r="AC67" s="30"/>
-      <c r="AD67" s="30"/>
-      <c r="AE67" s="30"/>
-      <c r="AF67" s="30"/>
-      <c r="AG67" s="30"/>
-      <c r="AH67" s="30"/>
-      <c r="AI67" s="30"/>
-      <c r="AJ67" s="30"/>
-      <c r="AK67" s="30"/>
-      <c r="AL67" s="30"/>
-      <c r="AM67" s="30"/>
-      <c r="AN67" s="30"/>
-      <c r="AO67" s="30"/>
-      <c r="AP67" s="30"/>
-      <c r="AQ67" s="30"/>
-      <c r="AR67" s="30"/>
-      <c r="AS67" s="30"/>
-      <c r="AT67" s="30"/>
-      <c r="AU67" s="30"/>
-    </row>
-    <row r="68" spans="1:47" s="20" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="57"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E68" s="70">
-        <v>0.2</v>
-      </c>
-      <c r="F68" s="30"/>
-      <c r="G68" s="46">
-        <v>3</v>
-      </c>
-      <c r="H68" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="I68" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="J68" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="30"/>
-      <c r="Y68" s="30"/>
-      <c r="Z68" s="30"/>
-      <c r="AA68" s="30"/>
-      <c r="AB68" s="30"/>
-      <c r="AC68" s="30"/>
-      <c r="AD68" s="30"/>
-      <c r="AE68" s="30"/>
-      <c r="AF68" s="30"/>
-      <c r="AG68" s="30"/>
-      <c r="AH68" s="30"/>
-      <c r="AI68" s="30"/>
-      <c r="AJ68" s="30"/>
-      <c r="AK68" s="30"/>
-      <c r="AL68" s="30"/>
-      <c r="AM68" s="30"/>
-      <c r="AN68" s="30"/>
-      <c r="AO68" s="30"/>
-      <c r="AP68" s="30"/>
-      <c r="AQ68" s="10"/>
-      <c r="AR68" s="10"/>
-      <c r="AS68" s="10"/>
-      <c r="AT68" s="30"/>
-      <c r="AU68" s="30"/>
-    </row>
-    <row r="69" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A69" s="57"/>
-      <c r="B69" s="43" t="s">
+    <row r="69" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="50"/>
+      <c r="B69" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-      <c r="AF69" s="3"/>
-      <c r="AG69" s="3"/>
-      <c r="AH69" s="3"/>
-      <c r="AI69" s="3"/>
-      <c r="AJ69" s="3"/>
-      <c r="AK69" s="3"/>
-      <c r="AL69" s="3"/>
-      <c r="AM69" s="3"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
+      <c r="Y69" s="46"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="46"/>
+      <c r="AB69" s="46"/>
+      <c r="AC69" s="46"/>
+      <c r="AD69" s="46"/>
+      <c r="AE69" s="46"/>
+      <c r="AF69" s="46"/>
+      <c r="AG69" s="46"/>
+      <c r="AH69" s="46"/>
+      <c r="AI69" s="46"/>
+      <c r="AJ69" s="46"/>
+      <c r="AK69" s="46"/>
+      <c r="AL69" s="46"/>
+      <c r="AM69" s="46"/>
       <c r="AN69" s="5"/>
       <c r="AO69" s="5"/>
       <c r="AP69" s="5"/>
@@ -11777,48 +11716,48 @@
       <c r="AT69" s="5"/>
       <c r="AU69" s="5"/>
     </row>
-    <row r="70" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A70" s="57"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-      <c r="AF70" s="3"/>
-      <c r="AG70" s="3"/>
-      <c r="AH70" s="3"/>
-      <c r="AI70" s="3"/>
-      <c r="AJ70" s="3"/>
-      <c r="AK70" s="3"/>
-      <c r="AL70" s="3"/>
-      <c r="AM70" s="3"/>
+    <row r="70" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="50"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="46"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="46"/>
+      <c r="X70" s="46"/>
+      <c r="Y70" s="46"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="46"/>
+      <c r="AB70" s="46"/>
+      <c r="AC70" s="46"/>
+      <c r="AD70" s="46"/>
+      <c r="AE70" s="46"/>
+      <c r="AF70" s="46"/>
+      <c r="AG70" s="46"/>
+      <c r="AH70" s="46"/>
+      <c r="AI70" s="46"/>
+      <c r="AJ70" s="46"/>
+      <c r="AK70" s="46"/>
+      <c r="AL70" s="46"/>
+      <c r="AM70" s="46"/>
       <c r="AN70" s="5"/>
       <c r="AO70" s="5"/>
       <c r="AP70" s="5"/>
@@ -11828,364 +11767,372 @@
       <c r="AT70" s="5"/>
       <c r="AU70" s="5"/>
     </row>
-    <row r="71" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A71" s="57"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="16">
+    <row r="71" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="50"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="28">
         <v>1</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="31">
+      <c r="F71" s="46"/>
+      <c r="G71" s="7">
         <v>2</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J71" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
-      <c r="AF71" s="3"/>
-      <c r="AG71" s="3"/>
-      <c r="AH71" s="3"/>
-      <c r="AI71" s="3"/>
-      <c r="AJ71" s="3"/>
-      <c r="AK71" s="3"/>
-      <c r="AL71" s="3"/>
-      <c r="AM71" s="3"/>
+      <c r="H71" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="46"/>
+      <c r="Q71" s="46"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="46"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="46"/>
+      <c r="X71" s="46"/>
+      <c r="Y71" s="46"/>
+      <c r="Z71" s="46"/>
+      <c r="AA71" s="46"/>
+      <c r="AB71" s="46"/>
+      <c r="AC71" s="46"/>
+      <c r="AD71" s="46"/>
+      <c r="AE71" s="46"/>
+      <c r="AF71" s="46"/>
+      <c r="AG71" s="46"/>
+      <c r="AH71" s="46"/>
+      <c r="AI71" s="46"/>
+      <c r="AJ71" s="46"/>
+      <c r="AK71" s="46"/>
+      <c r="AL71" s="46"/>
+      <c r="AM71" s="46"/>
       <c r="AN71" s="5"/>
       <c r="AO71" s="5"/>
       <c r="AP71" s="5"/>
       <c r="AQ71" s="5"/>
       <c r="AR71" s="5"/>
-      <c r="AS71" s="10"/>
-      <c r="AT71" s="10"/>
+      <c r="AS71" s="51"/>
+      <c r="AT71" s="51"/>
       <c r="AU71" s="5"/>
     </row>
-    <row r="72" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A72" s="57"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="16">
+    <row r="72" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="50"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="28">
         <v>1</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="31">
+      <c r="F72" s="46"/>
+      <c r="G72" s="7">
         <v>2</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I72" s="1" t="s">
+      <c r="H72" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J72" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-      <c r="AF72" s="3"/>
-      <c r="AG72" s="3"/>
-      <c r="AH72" s="3"/>
-      <c r="AI72" s="3"/>
-      <c r="AJ72" s="3"/>
-      <c r="AK72" s="3"/>
-      <c r="AL72" s="3"/>
-      <c r="AM72" s="3"/>
+      <c r="I72" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="46"/>
+      <c r="Q72" s="46"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="46"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="46"/>
+      <c r="X72" s="46"/>
+      <c r="Y72" s="46"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="46"/>
+      <c r="AB72" s="46"/>
+      <c r="AC72" s="46"/>
+      <c r="AD72" s="46"/>
+      <c r="AE72" s="46"/>
+      <c r="AF72" s="46"/>
+      <c r="AG72" s="46"/>
+      <c r="AH72" s="46"/>
+      <c r="AI72" s="46"/>
+      <c r="AJ72" s="46"/>
+      <c r="AK72" s="46"/>
+      <c r="AL72" s="46"/>
+      <c r="AM72" s="46"/>
       <c r="AN72" s="5"/>
       <c r="AO72" s="5"/>
       <c r="AP72" s="5"/>
       <c r="AQ72" s="5"/>
       <c r="AR72" s="5"/>
       <c r="AS72" s="5"/>
-      <c r="AT72" s="10"/>
-      <c r="AU72" s="10"/>
+      <c r="AT72" s="51"/>
+      <c r="AU72" s="51"/>
     </row>
-    <row r="73" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A73" s="57"/>
-      <c r="B73" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-      <c r="AF73" s="3"/>
-      <c r="AG73" s="3"/>
-      <c r="AH73" s="3"/>
-      <c r="AI73" s="3"/>
-      <c r="AJ73" s="3"/>
-      <c r="AK73" s="3"/>
-      <c r="AL73" s="3"/>
-      <c r="AM73" s="3"/>
-      <c r="AN73" s="30"/>
-      <c r="AO73" s="30"/>
-      <c r="AP73" s="30"/>
-      <c r="AQ73" s="30"/>
-      <c r="AR73" s="30"/>
-      <c r="AS73" s="30"/>
-      <c r="AT73" s="30"/>
-      <c r="AU73" s="30"/>
+    <row r="73" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="50"/>
+      <c r="B73" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="46"/>
+      <c r="Y73" s="46"/>
+      <c r="Z73" s="46"/>
+      <c r="AA73" s="46"/>
+      <c r="AB73" s="46"/>
+      <c r="AC73" s="46"/>
+      <c r="AD73" s="46"/>
+      <c r="AE73" s="46"/>
+      <c r="AF73" s="46"/>
+      <c r="AG73" s="46"/>
+      <c r="AH73" s="46"/>
+      <c r="AI73" s="46"/>
+      <c r="AJ73" s="46"/>
+      <c r="AK73" s="46"/>
+      <c r="AL73" s="46"/>
+      <c r="AM73" s="46"/>
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="5"/>
+      <c r="AP73" s="5"/>
+      <c r="AQ73" s="5"/>
+      <c r="AR73" s="5"/>
+      <c r="AS73" s="5"/>
+      <c r="AT73" s="5"/>
+      <c r="AU73" s="5"/>
     </row>
-    <row r="74" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A74" s="57"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="35" t="s">
+    <row r="74" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="50"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="46"/>
+      <c r="R74" s="46"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="46"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="46"/>
+      <c r="X74" s="46"/>
+      <c r="Y74" s="46"/>
+      <c r="Z74" s="46"/>
+      <c r="AA74" s="46"/>
+      <c r="AB74" s="46"/>
+      <c r="AC74" s="46"/>
+      <c r="AD74" s="46"/>
+      <c r="AE74" s="46"/>
+      <c r="AF74" s="46"/>
+      <c r="AG74" s="46"/>
+      <c r="AH74" s="46"/>
+      <c r="AI74" s="46"/>
+      <c r="AJ74" s="46"/>
+      <c r="AK74" s="46"/>
+      <c r="AL74" s="46"/>
+      <c r="AM74" s="46"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="5"/>
+      <c r="AS74" s="5"/>
+      <c r="AT74" s="5"/>
+      <c r="AU74" s="5"/>
+    </row>
+    <row r="75" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="50"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D74" s="35"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-      <c r="AF74" s="3"/>
-      <c r="AG74" s="3"/>
-      <c r="AH74" s="3"/>
-      <c r="AI74" s="3"/>
-      <c r="AJ74" s="3"/>
-      <c r="AK74" s="3"/>
-      <c r="AL74" s="3"/>
-      <c r="AM74" s="3"/>
-      <c r="AN74" s="30"/>
-      <c r="AO74" s="30"/>
-      <c r="AP74" s="30"/>
-      <c r="AQ74" s="30"/>
-      <c r="AR74" s="30"/>
-      <c r="AS74" s="30"/>
-      <c r="AT74" s="30"/>
-      <c r="AU74" s="30"/>
+      <c r="E75" s="28">
+        <v>1</v>
+      </c>
+      <c r="F75" s="46"/>
+      <c r="G75" s="7">
+        <v>3</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="46"/>
+      <c r="X75" s="46"/>
+      <c r="Y75" s="46"/>
+      <c r="Z75" s="46"/>
+      <c r="AA75" s="46"/>
+      <c r="AB75" s="46"/>
+      <c r="AC75" s="46"/>
+      <c r="AD75" s="46"/>
+      <c r="AE75" s="46"/>
+      <c r="AF75" s="46"/>
+      <c r="AG75" s="46"/>
+      <c r="AH75" s="46"/>
+      <c r="AI75" s="46"/>
+      <c r="AJ75" s="46"/>
+      <c r="AK75" s="46"/>
+      <c r="AL75" s="46"/>
+      <c r="AM75" s="46"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="51"/>
+      <c r="AS75" s="51"/>
+      <c r="AT75" s="51"/>
+      <c r="AU75" s="5"/>
     </row>
-    <row r="75" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="57"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E75" s="16">
+    <row r="76" spans="1:47" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="17"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="7">
         <v>1</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="31">
-        <v>3</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J75" s="31" t="s">
+      <c r="H76" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J76" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-      <c r="AF75" s="3"/>
-      <c r="AG75" s="3"/>
-      <c r="AH75" s="3"/>
-      <c r="AI75" s="3"/>
-      <c r="AJ75" s="3"/>
-      <c r="AK75" s="3"/>
-      <c r="AL75" s="3"/>
-      <c r="AM75" s="3"/>
-      <c r="AN75" s="30"/>
-      <c r="AO75" s="30"/>
-      <c r="AP75" s="30"/>
-      <c r="AQ75" s="30"/>
-      <c r="AR75" s="10"/>
-      <c r="AS75" s="10"/>
-      <c r="AT75" s="10"/>
-      <c r="AU75" s="30"/>
-    </row>
-    <row r="76" spans="1:47" s="18" customFormat="1" ht="11.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="58"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="31">
-        <v>1</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J76" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-      <c r="AF76" s="3"/>
-      <c r="AG76" s="3"/>
-      <c r="AH76" s="3"/>
-      <c r="AI76" s="3"/>
-      <c r="AJ76" s="3"/>
-      <c r="AK76" s="3"/>
-      <c r="AL76" s="3"/>
-      <c r="AM76" s="3"/>
-      <c r="AN76" s="30"/>
-      <c r="AO76" s="30"/>
-      <c r="AP76" s="30"/>
-      <c r="AQ76" s="30"/>
-      <c r="AR76" s="30"/>
-      <c r="AS76" s="30"/>
-      <c r="AT76" s="30"/>
-      <c r="AU76" s="10"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="46"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
+      <c r="X76" s="46"/>
+      <c r="Y76" s="46"/>
+      <c r="Z76" s="46"/>
+      <c r="AA76" s="46"/>
+      <c r="AB76" s="46"/>
+      <c r="AC76" s="46"/>
+      <c r="AD76" s="46"/>
+      <c r="AE76" s="46"/>
+      <c r="AF76" s="46"/>
+      <c r="AG76" s="46"/>
+      <c r="AH76" s="46"/>
+      <c r="AI76" s="46"/>
+      <c r="AJ76" s="46"/>
+      <c r="AK76" s="46"/>
+      <c r="AL76" s="46"/>
+      <c r="AM76" s="46"/>
+      <c r="AN76" s="5"/>
+      <c r="AO76" s="5"/>
+      <c r="AP76" s="5"/>
+      <c r="AQ76" s="5"/>
+      <c r="AR76" s="5"/>
+      <c r="AS76" s="5"/>
+      <c r="AT76" s="5"/>
+      <c r="AU76" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A13:A76"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:AN3"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="C14:D14"/>
@@ -12200,30 +12147,22 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:AN3"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A13:A76"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C64:D64"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
